--- a/website data/Aus Offsite Sites List 2019-Keith.xlsx
+++ b/website data/Aus Offsite Sites List 2019-Keith.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24701"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\seo\website data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A198FBD0-EF20-4321-A8F8-022122F9A0F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="781" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="781" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name=" Local Listing Sites" sheetId="1" r:id="rId1"/>
@@ -25,7 +24,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">' Local Listing Sites'!$A$1:$I$126</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'Niche Relevant Local Listing '!$B$2:$G$43</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -997,8 +996,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1050,6 +1049,14 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="7">
@@ -1140,10 +1147,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -1153,9 +1161,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1209,13 +1214,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -1230,12 +1229,38 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="4">
@@ -1582,2234 +1607,2242 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J126"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="J51" sqref="J51"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.7109375" style="2" customWidth="1"/>
-    <col min="2" max="2" width="52" style="1" customWidth="1"/>
-    <col min="10" max="10" width="53.42578125" customWidth="1"/>
+    <col min="1" max="1" width="14.7109375" style="39" customWidth="1"/>
+    <col min="2" max="2" width="52" style="40" customWidth="1"/>
+    <col min="3" max="9" width="8.7109375" style="33"/>
+    <col min="10" max="10" width="53.42578125" style="33" customWidth="1"/>
+    <col min="11" max="16384" width="8.7109375" style="33"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="16" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="32" t="s">
         <v>66</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="32" t="s">
         <v>67</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="32" t="s">
         <v>68</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="D1" s="32" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="34">
         <v>58</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="29" t="s">
         <v>119</v>
       </c>
-      <c r="C2" s="3">
+      <c r="C2" s="34">
         <v>92</v>
       </c>
-      <c r="D2" s="3">
+      <c r="D2" s="34">
         <v>93</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="34">
         <v>17</v>
       </c>
-      <c r="B3" s="25" t="s">
+      <c r="B3" s="30" t="s">
         <v>46</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3" s="34">
         <v>73</v>
       </c>
-      <c r="D3" s="3">
+      <c r="D3" s="34">
         <v>38</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="34">
         <v>55</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="29" t="s">
         <v>116</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4" s="34">
         <v>69</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4" s="34">
         <v>57</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="34">
         <v>34</v>
       </c>
-      <c r="B5" s="25" t="s">
+      <c r="B5" s="30" t="s">
         <v>104</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5" s="34">
         <v>67</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5" s="34">
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="34">
         <v>93</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6" s="34">
         <v>64</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6" s="34">
         <v>54</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="34">
         <v>53</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="29" t="s">
         <v>115</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C7" s="34">
         <v>63</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D7" s="34">
         <v>38</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="34">
         <v>70</v>
       </c>
-      <c r="B8" s="25" t="s">
+      <c r="B8" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C8" s="34">
         <v>63</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8" s="34">
         <v>59</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="34">
         <v>115</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="29" t="s">
         <v>92</v>
       </c>
-      <c r="C9" s="3">
+      <c r="C9" s="34">
         <v>59</v>
       </c>
-      <c r="D9" s="3">
+      <c r="D9" s="34">
         <v>31</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="34">
         <v>12</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="29" t="s">
         <v>42</v>
       </c>
-      <c r="C10" s="3">
+      <c r="C10" s="34">
         <v>55</v>
       </c>
-      <c r="D10" s="3">
+      <c r="D10" s="34">
         <v>57</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="34">
         <v>54</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="29" t="s">
         <v>42</v>
       </c>
-      <c r="C11" s="3">
+      <c r="C11" s="34">
         <v>55</v>
       </c>
-      <c r="D11" s="3">
+      <c r="D11" s="34">
         <v>57</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="34">
         <v>39</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="29" t="s">
         <v>54</v>
       </c>
-      <c r="C12" s="3">
+      <c r="C12" s="34">
         <v>54</v>
       </c>
-      <c r="D12" s="3">
+      <c r="D12" s="34">
         <v>53</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="34">
         <v>29</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="29" t="s">
         <v>99</v>
       </c>
-      <c r="C13" s="3">
+      <c r="C13" s="34">
         <v>53</v>
       </c>
-      <c r="D13" s="3">
+      <c r="D13" s="34">
         <v>54</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="34">
         <v>112</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="29" t="s">
         <v>90</v>
       </c>
-      <c r="C14" s="3">
+      <c r="C14" s="34">
         <v>52</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D14" s="34">
         <v>33</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="34">
         <v>26</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="33" t="s">
         <v>96</v>
       </c>
-      <c r="C15" s="3">
+      <c r="C15" s="34">
         <v>51</v>
       </c>
-      <c r="D15" s="3">
+      <c r="D15" s="34">
         <v>47</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="34">
         <v>71</v>
       </c>
-      <c r="B16" s="25" t="s">
+      <c r="B16" s="33" t="s">
         <v>71</v>
       </c>
-      <c r="C16" s="3">
+      <c r="C16" s="34">
         <v>51</v>
       </c>
-      <c r="D16" s="3">
+      <c r="D16" s="34">
         <v>56</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="34">
         <v>79</v>
       </c>
-      <c r="B17" s="25" t="s">
+      <c r="B17" s="33" t="s">
         <v>75</v>
       </c>
-      <c r="C17" s="3">
+      <c r="C17" s="34">
         <v>51</v>
       </c>
-      <c r="D17" s="3">
+      <c r="D17" s="34">
         <v>45</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="34">
         <v>102</v>
       </c>
-      <c r="B18" s="25" t="s">
+      <c r="B18" s="33" t="s">
         <v>87</v>
       </c>
-      <c r="C18" s="3">
+      <c r="C18" s="34">
         <v>51</v>
       </c>
-      <c r="D18" s="3">
+      <c r="D18" s="34">
         <v>40</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="34">
         <v>40</v>
       </c>
-      <c r="B19" s="4" t="s">
+      <c r="B19" s="29" t="s">
         <v>55</v>
       </c>
-      <c r="C19" s="3">
+      <c r="C19" s="34">
         <v>49</v>
       </c>
-      <c r="D19" s="3">
+      <c r="D19" s="34">
         <v>52</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="3">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="34">
         <v>57</v>
       </c>
-      <c r="B20" s="4" t="s">
+      <c r="B20" s="29" t="s">
         <v>118</v>
       </c>
-      <c r="C20" s="3">
+      <c r="C20" s="34">
         <v>49</v>
       </c>
-      <c r="D20" s="3">
+      <c r="D20" s="34">
         <v>56</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="3">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="34">
         <v>73</v>
       </c>
-      <c r="B21" s="25" t="s">
+      <c r="B21" s="33" t="s">
         <v>72</v>
       </c>
-      <c r="C21" s="3">
+      <c r="C21" s="34">
         <v>49</v>
       </c>
-      <c r="D21" s="3">
+      <c r="D21" s="34">
         <v>54</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="3">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="34">
         <v>31</v>
       </c>
-      <c r="B22" s="4" t="s">
+      <c r="B22" s="29" t="s">
         <v>101</v>
       </c>
-      <c r="C22" s="3">
+      <c r="C22" s="34">
         <v>47</v>
       </c>
-      <c r="D22" s="3">
+      <c r="D22" s="34">
         <v>29</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="3">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="34">
         <v>50</v>
       </c>
-      <c r="B23" s="4" t="s">
+      <c r="B23" s="29" t="s">
         <v>62</v>
       </c>
-      <c r="C23" s="3">
+      <c r="C23" s="34">
         <v>47</v>
       </c>
-      <c r="D23" s="3">
+      <c r="D23" s="34">
         <v>53</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="3">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="34">
         <v>30</v>
       </c>
-      <c r="B24" s="4" t="s">
+      <c r="B24" s="29" t="s">
         <v>100</v>
       </c>
-      <c r="C24" s="3">
+      <c r="C24" s="34">
         <v>45</v>
       </c>
-      <c r="D24" s="3">
+      <c r="D24" s="34">
         <v>55</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="3">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="34">
         <v>21</v>
       </c>
-      <c r="B25" s="25" t="s">
+      <c r="B25" s="33" t="s">
         <v>50</v>
       </c>
-      <c r="C25" s="3">
+      <c r="C25" s="34">
         <v>44</v>
       </c>
-      <c r="D25" s="3">
+      <c r="D25" s="34">
         <v>55</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="3">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="34">
         <v>42</v>
       </c>
-      <c r="B26" s="4" t="s">
+      <c r="B26" s="29" t="s">
         <v>109</v>
       </c>
-      <c r="C26" s="3">
+      <c r="C26" s="34">
         <v>44</v>
       </c>
-      <c r="D26" s="3">
+      <c r="D26" s="34">
         <v>44</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="3">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="34">
         <v>77</v>
       </c>
-      <c r="B27" s="4" t="s">
+      <c r="B27" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="C27" s="3">
+      <c r="C27" s="34">
         <v>44</v>
       </c>
-      <c r="D27" s="3">
+      <c r="D27" s="34">
         <v>43</v>
       </c>
-      <c r="G27" s="23"/>
-    </row>
-    <row r="28" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="3">
+      <c r="G27" s="35"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="34">
         <v>61</v>
       </c>
-      <c r="B28" s="4" t="s">
+      <c r="B28" s="29" t="s">
         <v>121</v>
       </c>
-      <c r="C28" s="3">
+      <c r="C28" s="34">
         <v>43</v>
       </c>
-      <c r="D28" s="3">
+      <c r="D28" s="34">
         <v>43</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="3">
+      <c r="A29" s="34">
         <v>37</v>
       </c>
-      <c r="B29" s="31" t="s">
+      <c r="B29" s="36" t="s">
         <v>107</v>
       </c>
-      <c r="C29" s="3">
+      <c r="C29" s="34">
         <v>42</v>
       </c>
-      <c r="D29" s="3">
+      <c r="D29" s="34">
         <v>30</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="3">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="34">
         <v>91</v>
       </c>
-      <c r="B30" s="4" t="s">
+      <c r="B30" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="C30" s="3">
+      <c r="C30" s="34">
         <v>41</v>
       </c>
-      <c r="D30" s="3">
+      <c r="D30" s="34">
         <v>56</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="3">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="34">
         <v>109</v>
       </c>
-      <c r="B31" s="4" t="s">
+      <c r="B31" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="C31" s="3">
+      <c r="C31" s="34">
         <v>41</v>
       </c>
-      <c r="D31" s="3">
+      <c r="D31" s="34">
         <v>28</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="3">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="34">
         <v>98</v>
       </c>
-      <c r="B32" s="4" t="s">
+      <c r="B32" s="33" t="s">
         <v>85</v>
       </c>
-      <c r="C32" s="3">
+      <c r="C32" s="34">
         <v>40</v>
       </c>
-      <c r="D32" s="3">
+      <c r="D32" s="34">
         <v>41</v>
       </c>
     </row>
-    <row r="33" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A33" s="3">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A33" s="34">
         <v>120</v>
       </c>
-      <c r="B33" s="4" t="s">
+      <c r="B33" s="33" t="s">
         <v>87</v>
       </c>
-      <c r="C33" s="3">
+      <c r="C33" s="34">
         <v>40</v>
       </c>
-      <c r="D33" s="3">
+      <c r="D33" s="34">
         <v>51</v>
       </c>
     </row>
-    <row r="34" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A34" s="3">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A34" s="34">
         <v>113</v>
       </c>
-      <c r="B34" s="4" t="s">
+      <c r="B34" s="33" t="s">
         <v>91</v>
       </c>
-      <c r="C34" s="3">
+      <c r="C34" s="34">
         <v>39</v>
       </c>
-      <c r="D34" s="3">
+      <c r="D34" s="34">
         <v>28</v>
       </c>
     </row>
-    <row r="35" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A35" s="3">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A35" s="34">
         <v>7</v>
       </c>
-      <c r="B35" s="4" t="s">
+      <c r="B35" s="33" t="s">
         <v>37</v>
       </c>
-      <c r="C35" s="3">
+      <c r="C35" s="34">
         <v>38</v>
       </c>
-      <c r="D35" s="3">
+      <c r="D35" s="34">
         <v>35</v>
       </c>
     </row>
-    <row r="36" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A36" s="3">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A36" s="34">
         <v>16</v>
       </c>
-      <c r="B36" s="4" t="s">
+      <c r="B36" s="33" t="s">
         <v>45</v>
       </c>
-      <c r="C36" s="3">
+      <c r="C36" s="34">
         <v>38</v>
       </c>
-      <c r="D36" s="3">
+      <c r="D36" s="34">
         <v>45</v>
       </c>
     </row>
-    <row r="37" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A37" s="3">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A37" s="34">
         <v>81</v>
       </c>
-      <c r="B37" s="4" t="s">
+      <c r="B37" s="33" t="s">
         <v>76</v>
       </c>
-      <c r="C37" s="3">
+      <c r="C37" s="34">
         <v>38</v>
       </c>
-      <c r="D37" s="3">
+      <c r="D37" s="34">
         <v>51</v>
       </c>
     </row>
-    <row r="38" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A38" s="3">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A38" s="34">
         <v>97</v>
       </c>
-      <c r="B38" s="4" t="s">
+      <c r="B38" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="C38" s="3">
+      <c r="C38" s="34">
         <v>38</v>
       </c>
-      <c r="D38" s="3">
+      <c r="D38" s="34">
         <v>44</v>
       </c>
     </row>
-    <row r="39" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A39" s="3">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A39" s="34">
         <v>2</v>
       </c>
-      <c r="B39" s="4" t="s">
+      <c r="B39" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="C39" s="3">
+      <c r="C39" s="34">
         <v>37</v>
       </c>
-      <c r="D39" s="3">
+      <c r="D39" s="34">
         <v>48</v>
       </c>
     </row>
-    <row r="40" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A40" s="3">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A40" s="34">
         <v>125</v>
       </c>
-      <c r="B40" s="4" t="s">
+      <c r="B40" s="29" t="s">
         <v>95</v>
       </c>
-      <c r="C40" s="3">
+      <c r="C40" s="34">
         <v>37</v>
       </c>
-      <c r="D40" s="3">
+      <c r="D40" s="34">
         <v>48</v>
       </c>
     </row>
-    <row r="41" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A41" s="3">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A41" s="34">
         <v>104</v>
       </c>
-      <c r="B41" s="4" t="s">
+      <c r="B41" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C41" s="3">
+      <c r="C41" s="34">
         <v>36</v>
       </c>
-      <c r="D41" s="3">
+      <c r="D41" s="34">
         <v>44</v>
       </c>
     </row>
-    <row r="42" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A42" s="3">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A42" s="34">
         <v>49</v>
       </c>
-      <c r="B42" s="4" t="s">
+      <c r="B42" s="29" t="s">
         <v>112</v>
       </c>
-      <c r="C42" s="3">
+      <c r="C42" s="34">
         <v>35</v>
       </c>
-      <c r="D42" s="3">
+      <c r="D42" s="34">
         <v>22</v>
       </c>
     </row>
-    <row r="43" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A43" s="3">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A43" s="34">
         <v>22</v>
       </c>
-      <c r="B43" s="5" t="s">
+      <c r="B43" s="29" t="s">
         <v>57</v>
       </c>
-      <c r="C43" s="3">
+      <c r="C43" s="34">
         <v>34</v>
       </c>
-      <c r="D43" s="3">
+      <c r="D43" s="34">
         <v>39</v>
       </c>
     </row>
-    <row r="44" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A44" s="3">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A44" s="34">
         <v>41</v>
       </c>
-      <c r="B44" s="4" t="s">
+      <c r="B44" s="29" t="s">
         <v>56</v>
       </c>
-      <c r="C44" s="3">
+      <c r="C44" s="34">
         <v>34</v>
       </c>
-      <c r="D44" s="3">
+      <c r="D44" s="34">
         <v>39</v>
       </c>
     </row>
-    <row r="45" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A45" s="3">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A45" s="34">
         <v>45</v>
       </c>
-      <c r="B45" s="4" t="s">
+      <c r="B45" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="C45" s="3">
+      <c r="C45" s="34">
         <v>33</v>
       </c>
-      <c r="D45" s="3">
+      <c r="D45" s="34">
         <v>35</v>
       </c>
     </row>
-    <row r="46" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A46" s="3">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A46" s="34">
         <v>89</v>
       </c>
-      <c r="B46" s="4" t="s">
+      <c r="B46" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="C46" s="3">
+      <c r="C46" s="34">
         <v>33</v>
       </c>
-      <c r="D46" s="3">
+      <c r="D46" s="34">
         <v>33</v>
       </c>
     </row>
-    <row r="47" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A47" s="3">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A47" s="34">
         <v>106</v>
       </c>
-      <c r="B47" s="4" t="s">
+      <c r="B47" s="29" t="s">
         <v>88</v>
       </c>
-      <c r="C47" s="3">
+      <c r="C47" s="34">
         <v>33</v>
       </c>
-      <c r="D47" s="3">
+      <c r="D47" s="34">
         <v>27</v>
       </c>
-      <c r="I47" s="33"/>
-      <c r="J47" s="7" t="s">
+      <c r="I47" s="37"/>
+      <c r="J47" s="33" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="48" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A48" s="3">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A48" s="34">
         <v>43</v>
       </c>
-      <c r="B48" s="4" t="s">
+      <c r="B48" s="29" t="s">
         <v>58</v>
       </c>
-      <c r="C48" s="3">
+      <c r="C48" s="34">
         <v>32</v>
       </c>
-      <c r="D48" s="3">
+      <c r="D48" s="34">
         <v>39</v>
       </c>
-      <c r="J48" s="4" t="s">
+      <c r="J48" s="29" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="49" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A49" s="3">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A49" s="34">
         <v>76</v>
       </c>
-      <c r="B49" s="4" t="s">
+      <c r="B49" s="29" t="s">
         <v>74</v>
       </c>
-      <c r="C49" s="3">
+      <c r="C49" s="34">
         <v>32</v>
       </c>
-      <c r="D49" s="3">
+      <c r="D49" s="34">
         <v>42</v>
       </c>
-      <c r="I49" s="33"/>
-      <c r="J49" s="4" t="s">
+      <c r="I49" s="37"/>
+      <c r="J49" s="29" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="50" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A50" s="3">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A50" s="34">
         <v>105</v>
       </c>
-      <c r="B50" s="4" t="s">
+      <c r="B50" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="C50" s="3">
+      <c r="C50" s="34">
         <v>32</v>
       </c>
-      <c r="D50" s="3">
+      <c r="D50" s="34">
         <v>27</v>
       </c>
-      <c r="I50" s="33"/>
-      <c r="J50" s="4" t="s">
+      <c r="I50" s="37"/>
+      <c r="J50" s="29" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="51" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A51" s="3">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A51" s="34">
         <v>117</v>
       </c>
-      <c r="B51" s="4" t="s">
+      <c r="B51" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="C51" s="3">
+      <c r="C51" s="34">
         <v>32</v>
       </c>
-      <c r="D51" s="3">
+      <c r="D51" s="34">
         <v>24</v>
       </c>
-      <c r="I51" s="33"/>
-      <c r="J51" s="4" t="s">
+      <c r="I51" s="37"/>
+      <c r="J51" s="29" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="52" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A52" s="3">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A52" s="34">
         <v>10</v>
       </c>
-      <c r="B52" s="4" t="s">
+      <c r="B52" s="29" t="s">
         <v>40</v>
       </c>
-      <c r="C52" s="3">
+      <c r="C52" s="34">
         <v>31</v>
       </c>
-      <c r="D52" s="3">
+      <c r="D52" s="34">
         <v>32</v>
       </c>
-      <c r="J52" s="4"/>
-    </row>
-    <row r="53" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A53" s="3">
+      <c r="J52" s="29"/>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A53" s="34">
         <v>27</v>
       </c>
-      <c r="B53" s="4" t="s">
+      <c r="B53" s="29" t="s">
         <v>97</v>
       </c>
-      <c r="C53" s="3">
+      <c r="C53" s="34">
         <v>31</v>
       </c>
-      <c r="D53" s="3">
+      <c r="D53" s="34">
         <v>37</v>
       </c>
-      <c r="I53" s="33"/>
-      <c r="J53" s="4" t="s">
+      <c r="I53" s="37"/>
+      <c r="J53" s="29" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="54" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A54" s="3">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A54" s="34">
         <v>114</v>
       </c>
-      <c r="B54" s="4" t="s">
+      <c r="B54" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="C54" s="3">
+      <c r="C54" s="34">
         <v>31</v>
       </c>
-      <c r="D54" s="3">
+      <c r="D54" s="34">
         <v>25</v>
       </c>
-      <c r="I54" s="33"/>
-      <c r="J54" s="4" t="s">
+      <c r="I54" s="37"/>
+      <c r="J54" s="29" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="55" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A55" s="3">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A55" s="34">
         <v>124</v>
       </c>
-      <c r="B55" s="4" t="s">
+      <c r="B55" s="29" t="s">
         <v>94</v>
       </c>
-      <c r="C55" s="3">
+      <c r="C55" s="34">
         <v>31</v>
       </c>
-      <c r="D55" s="3">
+      <c r="D55" s="34">
         <v>35</v>
       </c>
-      <c r="I55" s="33"/>
-      <c r="J55" s="4" t="s">
+      <c r="I55" s="37"/>
+      <c r="J55" s="29" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="56" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A56" s="3">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A56" s="34">
         <v>35</v>
       </c>
-      <c r="B56" s="4" t="s">
+      <c r="B56" s="29" t="s">
         <v>105</v>
       </c>
-      <c r="C56" s="3">
+      <c r="C56" s="34">
         <v>30</v>
       </c>
-      <c r="D56" s="3">
+      <c r="D56" s="34">
         <v>34</v>
       </c>
-      <c r="J56" s="4" t="s">
+      <c r="J56" s="29" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="57" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A57" s="3">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A57" s="34">
         <v>44</v>
       </c>
-      <c r="B57" s="4" t="s">
+      <c r="B57" s="29" t="s">
         <v>59</v>
       </c>
-      <c r="C57" s="3">
+      <c r="C57" s="34">
         <v>30</v>
       </c>
-      <c r="D57" s="3">
+      <c r="D57" s="34">
         <v>34</v>
       </c>
-      <c r="J57" s="4" t="s">
+      <c r="J57" s="29" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="58" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A58" s="3">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A58" s="34">
         <v>107</v>
       </c>
-      <c r="B58" s="4" t="s">
+      <c r="B58" s="29" t="s">
         <v>89</v>
       </c>
-      <c r="C58" s="3">
+      <c r="C58" s="34">
         <v>30</v>
       </c>
-      <c r="D58" s="3">
+      <c r="D58" s="34">
         <v>27</v>
       </c>
-      <c r="I58" s="33"/>
-      <c r="J58" s="4" t="s">
+      <c r="I58" s="37"/>
+      <c r="J58" s="29" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="59" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A59" s="3">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A59" s="34">
         <v>15</v>
       </c>
-      <c r="B59" s="4" t="s">
+      <c r="B59" s="29" t="s">
         <v>44</v>
       </c>
-      <c r="C59" s="3">
+      <c r="C59" s="34">
         <v>29</v>
       </c>
-      <c r="D59" s="3">
+      <c r="D59" s="34">
         <v>47</v>
       </c>
     </row>
-    <row r="60" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A60" s="3">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A60" s="34">
         <v>18</v>
       </c>
-      <c r="B60" s="4" t="s">
+      <c r="B60" s="29" t="s">
         <v>47</v>
       </c>
-      <c r="C60" s="3">
+      <c r="C60" s="34">
         <v>29</v>
       </c>
-      <c r="D60" s="3">
+      <c r="D60" s="34">
         <v>47</v>
       </c>
     </row>
-    <row r="61" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A61" s="3">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A61" s="34">
         <v>87</v>
       </c>
-      <c r="B61" s="4" t="s">
+      <c r="B61" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="C61" s="3">
+      <c r="C61" s="34">
         <v>29</v>
       </c>
-      <c r="D61" s="3">
+      <c r="D61" s="34">
         <v>32</v>
       </c>
     </row>
-    <row r="62" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A62" s="3">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A62" s="34">
         <v>96</v>
       </c>
-      <c r="B62" s="32" t="s">
+      <c r="B62" s="33" t="s">
         <v>84</v>
       </c>
-      <c r="C62" s="3">
+      <c r="C62" s="34">
         <v>29</v>
       </c>
-      <c r="D62" s="3">
+      <c r="D62" s="34">
         <v>34</v>
       </c>
     </row>
-    <row r="63" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A63" s="3">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A63" s="34">
         <v>103</v>
       </c>
-      <c r="B63" s="4" t="s">
+      <c r="B63" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="C63" s="3">
+      <c r="C63" s="34">
         <v>29</v>
       </c>
-      <c r="D63" s="3">
+      <c r="D63" s="34">
         <v>33</v>
       </c>
     </row>
-    <row r="64" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A64" s="3">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A64" s="34">
         <v>116</v>
       </c>
-      <c r="B64" s="4" t="s">
+      <c r="B64" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="C64" s="3">
+      <c r="C64" s="34">
         <v>29</v>
       </c>
-      <c r="D64" s="3">
+      <c r="D64" s="34">
         <v>25</v>
       </c>
     </row>
-    <row r="65" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A65" s="3">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A65" s="34">
         <v>121</v>
       </c>
-      <c r="B65" s="4" t="s">
+      <c r="B65" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="C65" s="3">
+      <c r="C65" s="34">
         <v>29</v>
       </c>
-      <c r="D65" s="3">
+      <c r="D65" s="34">
         <v>47</v>
       </c>
     </row>
-    <row r="66" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A66" s="3">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A66" s="34">
         <v>9</v>
       </c>
-      <c r="B66" s="4" t="s">
+      <c r="B66" s="29" t="s">
         <v>39</v>
       </c>
-      <c r="C66" s="3">
+      <c r="C66" s="34">
         <v>27</v>
       </c>
-      <c r="D66" s="3">
+      <c r="D66" s="34">
         <v>46</v>
       </c>
     </row>
-    <row r="67" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A67" s="3">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A67" s="34">
         <v>14</v>
       </c>
-      <c r="B67" s="4" t="s">
+      <c r="B67" s="29" t="s">
         <v>43</v>
       </c>
-      <c r="C67" s="3">
+      <c r="C67" s="34">
         <v>27</v>
       </c>
-      <c r="D67" s="3">
+      <c r="D67" s="34">
         <v>46</v>
       </c>
     </row>
-    <row r="68" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A68" s="3">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A68" s="34">
         <v>32</v>
       </c>
-      <c r="B68" s="4" t="s">
+      <c r="B68" s="29" t="s">
         <v>102</v>
       </c>
-      <c r="C68" s="3">
+      <c r="C68" s="34">
         <v>27</v>
       </c>
-      <c r="D68" s="3">
+      <c r="D68" s="34">
         <v>24</v>
       </c>
     </row>
-    <row r="69" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A69" s="3">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A69" s="34">
         <v>47</v>
       </c>
-      <c r="B69" s="4" t="s">
+      <c r="B69" s="29" t="s">
         <v>110</v>
       </c>
-      <c r="C69" s="3">
+      <c r="C69" s="34">
         <v>27</v>
       </c>
-      <c r="D69" s="3">
+      <c r="D69" s="34">
         <v>32</v>
       </c>
-      <c r="H69" t="s">
+      <c r="H69" s="33" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A70" s="3">
+      <c r="A70" s="34">
         <v>62</v>
       </c>
-      <c r="B70" s="31" t="s">
+      <c r="B70" s="36" t="s">
         <v>63</v>
       </c>
-      <c r="C70" s="31">
+      <c r="C70" s="36">
         <v>27</v>
       </c>
-      <c r="D70" s="31">
+      <c r="D70" s="36">
         <v>31</v>
       </c>
     </row>
-    <row r="71" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A71" s="3">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A71" s="34">
         <v>74</v>
       </c>
-      <c r="B71" s="4" t="s">
+      <c r="B71" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="C71" s="3">
+      <c r="C71" s="34">
         <v>27</v>
       </c>
-      <c r="D71" s="3">
+      <c r="D71" s="34">
         <v>46</v>
       </c>
     </row>
-    <row r="72" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A72" s="3">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A72" s="34">
         <v>108</v>
       </c>
-      <c r="B72" s="4" t="s">
+      <c r="B72" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="C72" s="3">
+      <c r="C72" s="34">
         <v>27</v>
       </c>
-      <c r="D72" s="3">
+      <c r="D72" s="34">
         <v>21</v>
       </c>
     </row>
-    <row r="73" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A73" s="3">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A73" s="34">
         <v>83</v>
       </c>
-      <c r="B73" s="4" t="s">
+      <c r="B73" s="29" t="s">
         <v>78</v>
       </c>
-      <c r="C73" s="3">
+      <c r="C73" s="34">
         <v>26</v>
       </c>
-      <c r="D73" s="3">
+      <c r="D73" s="34">
         <v>43</v>
       </c>
     </row>
-    <row r="74" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A74" s="3">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A74" s="34">
         <v>100</v>
       </c>
-      <c r="B74" s="4" t="s">
+      <c r="B74" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="C74" s="3">
+      <c r="C74" s="34">
         <v>26</v>
       </c>
-      <c r="D74" s="3">
+      <c r="D74" s="34">
         <v>40</v>
       </c>
     </row>
-    <row r="75" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A75" s="3">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A75" s="34">
         <v>122</v>
       </c>
-      <c r="B75" s="4" t="s">
+      <c r="B75" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="C75" s="3">
+      <c r="C75" s="34">
         <v>26</v>
       </c>
-      <c r="D75" s="3">
+      <c r="D75" s="34">
         <v>46</v>
       </c>
     </row>
-    <row r="76" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A76" s="3">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A76" s="34">
         <v>1</v>
       </c>
-      <c r="B76" s="4" t="s">
+      <c r="B76" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="C76" s="3">
+      <c r="C76" s="34">
         <v>25</v>
       </c>
-      <c r="D76" s="3">
+      <c r="D76" s="34">
         <v>35</v>
       </c>
     </row>
-    <row r="77" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A77" s="3">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A77" s="34">
         <v>13</v>
       </c>
-      <c r="B77" s="4" t="s">
+      <c r="B77" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="C77" s="3">
+      <c r="C77" s="34">
         <v>25</v>
       </c>
-      <c r="D77" s="3">
+      <c r="D77" s="34">
         <v>38</v>
       </c>
     </row>
-    <row r="78" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A78" s="3">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A78" s="34">
         <v>82</v>
       </c>
-      <c r="B78" s="4" t="s">
+      <c r="B78" s="29" t="s">
         <v>77</v>
       </c>
-      <c r="C78" s="3">
+      <c r="C78" s="34">
         <v>25</v>
       </c>
-      <c r="D78" s="3">
+      <c r="D78" s="34">
         <v>46</v>
       </c>
-      <c r="G78" s="24"/>
-    </row>
-    <row r="79" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A79" s="3">
+      <c r="G78" s="38"/>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A79" s="34">
         <v>88</v>
       </c>
-      <c r="B79" s="4" t="s">
+      <c r="B79" s="29" t="s">
         <v>80</v>
       </c>
-      <c r="C79" s="3">
+      <c r="C79" s="34">
         <v>25</v>
       </c>
-      <c r="D79" s="3">
+      <c r="D79" s="34">
         <v>38</v>
       </c>
     </row>
-    <row r="80" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A80" s="3">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A80" s="34">
         <v>92</v>
       </c>
-      <c r="B80" s="4" t="s">
+      <c r="B80" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="C80" s="3">
+      <c r="C80" s="34">
         <v>25</v>
       </c>
-      <c r="D80" s="3">
+      <c r="D80" s="34">
         <v>32</v>
       </c>
     </row>
-    <row r="81" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A81" s="3">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A81" s="34">
         <v>94</v>
       </c>
-      <c r="B81" s="4" t="s">
+      <c r="B81" s="29" t="s">
         <v>82</v>
       </c>
-      <c r="C81" s="3">
+      <c r="C81" s="34">
         <v>25</v>
       </c>
-      <c r="D81" s="3">
+      <c r="D81" s="34">
         <v>34</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A82" s="3">
+      <c r="A82" s="34">
         <v>38</v>
       </c>
-      <c r="B82" s="31" t="s">
+      <c r="B82" s="36" t="s">
         <v>108</v>
       </c>
-      <c r="C82" s="3">
+      <c r="C82" s="34">
         <v>24</v>
       </c>
-      <c r="D82" s="3">
+      <c r="D82" s="34">
         <v>29</v>
       </c>
     </row>
-    <row r="83" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A83" s="3">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A83" s="34">
         <v>56</v>
       </c>
-      <c r="B83" s="4" t="s">
+      <c r="B83" s="29" t="s">
         <v>117</v>
       </c>
-      <c r="C83" s="3">
+      <c r="C83" s="34">
         <v>24</v>
       </c>
-      <c r="D83" s="3">
+      <c r="D83" s="34">
         <v>36</v>
       </c>
     </row>
-    <row r="84" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A84" s="3">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A84" s="34">
         <v>119</v>
       </c>
-      <c r="B84" s="4" t="s">
+      <c r="B84" s="29" t="s">
         <v>93</v>
       </c>
-      <c r="C84" s="3">
+      <c r="C84" s="34">
         <v>24</v>
       </c>
-      <c r="D84" s="3">
+      <c r="D84" s="34">
         <v>38</v>
       </c>
     </row>
-    <row r="85" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A85" s="3">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A85" s="34">
         <v>60</v>
       </c>
-      <c r="B85" s="4" t="s">
+      <c r="B85" s="29" t="s">
         <v>120</v>
       </c>
-      <c r="C85" s="3">
+      <c r="C85" s="34">
         <v>23</v>
       </c>
-      <c r="D85" s="3">
+      <c r="D85" s="34">
         <v>17</v>
       </c>
     </row>
-    <row r="86" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A86" s="3">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A86" s="34">
         <v>3</v>
       </c>
-      <c r="B86" s="4" t="s">
+      <c r="B86" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="C86" s="3">
+      <c r="C86" s="34">
         <v>22</v>
       </c>
-      <c r="D86" s="3">
+      <c r="D86" s="34">
         <v>28</v>
       </c>
     </row>
-    <row r="87" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A87" s="3">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A87" s="34">
         <v>4</v>
       </c>
-      <c r="B87" s="4" t="s">
+      <c r="B87" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="C87" s="3">
+      <c r="C87" s="34">
         <v>22</v>
       </c>
-      <c r="D87" s="3">
+      <c r="D87" s="34">
         <v>40</v>
       </c>
     </row>
-    <row r="88" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A88" s="3">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A88" s="34">
         <v>6</v>
       </c>
-      <c r="B88" s="4" t="s">
+      <c r="B88" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="C88" s="3">
+      <c r="C88" s="34">
         <v>22</v>
       </c>
-      <c r="D88" s="3">
+      <c r="D88" s="34">
         <v>32</v>
       </c>
     </row>
-    <row r="89" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A89" s="3">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A89" s="34">
         <v>28</v>
       </c>
-      <c r="B89" s="4" t="s">
+      <c r="B89" s="29" t="s">
         <v>98</v>
       </c>
-      <c r="C89" s="3">
+      <c r="C89" s="34">
         <v>22</v>
       </c>
-      <c r="D89" s="3">
+      <c r="D89" s="34">
         <v>35</v>
       </c>
     </row>
-    <row r="90" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A90" s="3">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A90" s="34">
         <v>72</v>
       </c>
-      <c r="B90" s="4" t="s">
+      <c r="B90" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="C90" s="3">
+      <c r="C90" s="34">
         <v>22</v>
       </c>
-      <c r="D90" s="3">
+      <c r="D90" s="34">
         <v>32</v>
       </c>
     </row>
-    <row r="91" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A91" s="3">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A91" s="34">
         <v>95</v>
       </c>
-      <c r="B91" s="4" t="s">
+      <c r="B91" s="29" t="s">
         <v>83</v>
       </c>
-      <c r="C91" s="3">
+      <c r="C91" s="34">
         <v>22</v>
       </c>
-      <c r="D91" s="3">
+      <c r="D91" s="34">
         <v>32</v>
       </c>
     </row>
-    <row r="92" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A92" s="3">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A92" s="34">
         <v>101</v>
       </c>
-      <c r="B92" s="32" t="s">
+      <c r="B92" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="C92" s="3">
+      <c r="C92" s="34">
         <v>22</v>
       </c>
-      <c r="D92" s="3">
+      <c r="D92" s="34">
         <v>29</v>
       </c>
     </row>
-    <row r="93" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A93" s="3">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A93" s="34">
         <v>118</v>
       </c>
-      <c r="B93" s="4" t="s">
+      <c r="B93" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="C93" s="3">
+      <c r="C93" s="34">
         <v>22</v>
       </c>
-      <c r="D93" s="3">
+      <c r="D93" s="34">
         <v>35</v>
       </c>
     </row>
-    <row r="94" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A94" s="3">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A94" s="34">
         <v>23</v>
       </c>
-      <c r="B94" s="4" t="s">
+      <c r="B94" s="29" t="s">
         <v>51</v>
       </c>
-      <c r="C94" s="3">
+      <c r="C94" s="34">
         <v>21</v>
       </c>
-      <c r="D94" s="3">
+      <c r="D94" s="34">
         <v>35</v>
       </c>
     </row>
-    <row r="95" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A95" s="3">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A95" s="34">
         <v>24</v>
       </c>
-      <c r="B95" s="4" t="s">
+      <c r="B95" s="29" t="s">
         <v>52</v>
       </c>
-      <c r="C95" s="3">
+      <c r="C95" s="34">
         <v>21</v>
       </c>
-      <c r="D95" s="3">
+      <c r="D95" s="34">
         <v>45</v>
       </c>
     </row>
-    <row r="96" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A96" s="3">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A96" s="34">
         <v>48</v>
       </c>
-      <c r="B96" s="4" t="s">
+      <c r="B96" s="29" t="s">
         <v>111</v>
       </c>
-      <c r="C96" s="3">
+      <c r="C96" s="34">
         <v>20</v>
       </c>
-      <c r="D96" s="3">
+      <c r="D96" s="34">
         <v>31</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A97" s="3">
+      <c r="A97" s="34">
         <v>68</v>
       </c>
-      <c r="B97" s="31" t="s">
+      <c r="B97" s="36" t="s">
         <v>125</v>
       </c>
-      <c r="C97" s="31">
+      <c r="C97" s="36">
         <v>20</v>
       </c>
-      <c r="D97" s="31">
+      <c r="D97" s="36">
         <v>44</v>
       </c>
     </row>
-    <row r="98" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A98" s="3">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A98" s="34">
         <v>75</v>
       </c>
-      <c r="B98" s="4" t="s">
+      <c r="B98" s="29" t="s">
         <v>73</v>
       </c>
-      <c r="C98" s="3">
+      <c r="C98" s="34">
         <v>20</v>
       </c>
-      <c r="D98" s="3">
+      <c r="D98" s="34">
         <v>32</v>
       </c>
     </row>
-    <row r="99" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A99" s="3">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A99" s="34">
         <v>90</v>
       </c>
-      <c r="B99" s="4" t="s">
+      <c r="B99" s="29" t="s">
         <v>81</v>
       </c>
-      <c r="C99" s="3">
+      <c r="C99" s="34">
         <v>20</v>
       </c>
-      <c r="D99" s="3">
+      <c r="D99" s="34">
         <v>46</v>
       </c>
     </row>
-    <row r="100" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A100" s="3">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A100" s="34">
         <v>99</v>
       </c>
-      <c r="B100" s="32" t="s">
+      <c r="B100" s="31" t="s">
         <v>86</v>
       </c>
-      <c r="C100" s="3">
+      <c r="C100" s="34">
         <v>20</v>
       </c>
-      <c r="D100" s="3">
+      <c r="D100" s="34">
         <v>36</v>
       </c>
     </row>
-    <row r="101" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A101" s="3">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A101" s="34">
         <v>59</v>
       </c>
-      <c r="B101" s="4" t="s">
+      <c r="B101" s="29" t="s">
         <v>61</v>
       </c>
-      <c r="C101" s="3">
+      <c r="C101" s="34">
         <v>19</v>
       </c>
-      <c r="D101" s="3">
+      <c r="D101" s="34">
         <v>27</v>
       </c>
     </row>
-    <row r="102" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A102" s="3">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A102" s="34">
         <v>78</v>
       </c>
-      <c r="B102" s="4" t="s">
+      <c r="B102" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="C102" s="3">
+      <c r="C102" s="34">
         <v>19</v>
       </c>
-      <c r="D102" s="3">
+      <c r="D102" s="34">
         <v>36</v>
       </c>
     </row>
-    <row r="103" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A103" s="3">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A103" s="34">
         <v>85</v>
       </c>
-      <c r="B103" s="4" t="s">
+      <c r="B103" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="C103" s="3">
+      <c r="C103" s="34">
         <v>19</v>
       </c>
-      <c r="D103" s="3">
+      <c r="D103" s="34">
         <v>44</v>
       </c>
     </row>
-    <row r="104" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A104" s="3">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A104" s="34">
         <v>19</v>
       </c>
-      <c r="B104" s="4" t="s">
+      <c r="B104" s="29" t="s">
         <v>48</v>
       </c>
-      <c r="C104" s="3">
+      <c r="C104" s="34">
         <v>18</v>
       </c>
-      <c r="D104" s="3">
+      <c r="D104" s="34">
         <v>44</v>
       </c>
     </row>
-    <row r="105" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A105" s="3">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A105" s="34">
         <v>52</v>
       </c>
-      <c r="B105" s="4" t="s">
+      <c r="B105" s="29" t="s">
         <v>114</v>
       </c>
-      <c r="C105" s="3">
+      <c r="C105" s="34">
         <v>18</v>
       </c>
-      <c r="D105" s="3">
+      <c r="D105" s="34">
         <v>35</v>
       </c>
     </row>
-    <row r="106" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A106" s="3">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A106" s="34">
         <v>5</v>
       </c>
-      <c r="B106" s="4" t="s">
+      <c r="B106" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="C106" s="3">
+      <c r="C106" s="34">
         <v>17</v>
       </c>
-      <c r="D106" s="3">
+      <c r="D106" s="34">
         <v>34</v>
       </c>
     </row>
-    <row r="107" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A107" s="3">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A107" s="34">
         <v>46</v>
       </c>
-      <c r="B107" s="4" t="s">
+      <c r="B107" s="29" t="s">
         <v>61</v>
       </c>
-      <c r="C107" s="3">
+      <c r="C107" s="34">
         <v>17</v>
       </c>
-      <c r="D107" s="3">
+      <c r="D107" s="34">
         <v>29</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A108" s="3">
+      <c r="A108" s="34">
         <v>66</v>
       </c>
-      <c r="B108" s="31" t="s">
+      <c r="B108" s="36" t="s">
         <v>124</v>
       </c>
-      <c r="C108" s="31">
+      <c r="C108" s="36">
         <v>17</v>
       </c>
-      <c r="D108" s="31">
+      <c r="D108" s="36">
         <v>34</v>
       </c>
     </row>
-    <row r="109" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A109" s="3">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A109" s="34">
         <v>111</v>
       </c>
-      <c r="B109" s="4" t="s">
+      <c r="B109" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="C109" s="3">
+      <c r="C109" s="34">
         <v>17</v>
       </c>
-      <c r="D109" s="3">
+      <c r="D109" s="34">
         <v>22</v>
       </c>
     </row>
-    <row r="110" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A110" s="3">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A110" s="34">
         <v>123</v>
       </c>
-      <c r="B110" s="4" t="s">
+      <c r="B110" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="C110" s="3">
+      <c r="C110" s="34">
         <v>17</v>
       </c>
-      <c r="D110" s="3">
+      <c r="D110" s="34">
         <v>44</v>
       </c>
     </row>
-    <row r="111" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A111" s="3">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A111" s="34">
         <v>20</v>
       </c>
-      <c r="B111" s="4" t="s">
+      <c r="B111" s="29" t="s">
         <v>49</v>
       </c>
-      <c r="C111" s="3">
+      <c r="C111" s="34">
         <v>16</v>
       </c>
-      <c r="D111" s="3">
+      <c r="D111" s="34">
         <v>28</v>
       </c>
     </row>
-    <row r="112" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A112" s="3">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A112" s="34">
         <v>25</v>
       </c>
-      <c r="B112" s="4" t="s">
+      <c r="B112" s="29" t="s">
         <v>53</v>
       </c>
-      <c r="C112" s="3">
+      <c r="C112" s="34">
         <v>16</v>
       </c>
-      <c r="D112" s="3">
+      <c r="D112" s="34">
         <v>28</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A113" s="3">
+      <c r="A113" s="34">
         <v>36</v>
       </c>
-      <c r="B113" s="31" t="s">
+      <c r="B113" s="36" t="s">
         <v>106</v>
       </c>
-      <c r="C113" s="3">
+      <c r="C113" s="34">
         <v>16</v>
       </c>
-      <c r="D113" s="3">
+      <c r="D113" s="34">
         <v>23</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A114" s="3">
+      <c r="A114" s="34">
         <v>65</v>
       </c>
-      <c r="B114" s="31" t="s">
+      <c r="B114" s="36" t="s">
         <v>123</v>
       </c>
-      <c r="C114" s="31">
+      <c r="C114" s="36">
         <v>16</v>
       </c>
-      <c r="D114" s="31">
+      <c r="D114" s="36">
         <v>44</v>
       </c>
     </row>
-    <row r="115" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A115" s="3">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A115" s="34">
         <v>80</v>
       </c>
-      <c r="B115" s="4" t="s">
+      <c r="B115" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="C115" s="3">
+      <c r="C115" s="34">
         <v>16</v>
       </c>
-      <c r="D115" s="3">
+      <c r="D115" s="34">
         <v>26</v>
       </c>
     </row>
-    <row r="116" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A116" s="3">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A116" s="34">
         <v>84</v>
       </c>
-      <c r="B116" s="4" t="s">
+      <c r="B116" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="C116" s="3">
+      <c r="C116" s="34">
         <v>16</v>
       </c>
-      <c r="D116" s="3">
+      <c r="D116" s="34">
         <v>44</v>
       </c>
     </row>
-    <row r="117" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A117" s="3">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A117" s="34">
         <v>110</v>
       </c>
-      <c r="B117" s="4" t="s">
+      <c r="B117" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="C117" s="3">
+      <c r="C117" s="34">
         <v>16</v>
       </c>
-      <c r="D117" s="3">
+      <c r="D117" s="34">
         <v>21</v>
       </c>
     </row>
-    <row r="118" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A118" s="3">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A118" s="34">
         <v>8</v>
       </c>
-      <c r="B118" s="4" t="s">
+      <c r="B118" s="29" t="s">
         <v>38</v>
       </c>
-      <c r="C118" s="3">
+      <c r="C118" s="34">
         <v>15</v>
       </c>
-      <c r="D118" s="3">
+      <c r="D118" s="34">
         <v>27</v>
       </c>
     </row>
-    <row r="119" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A119" s="3">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A119" s="34">
         <v>11</v>
       </c>
-      <c r="B119" s="4" t="s">
+      <c r="B119" s="29" t="s">
         <v>41</v>
       </c>
-      <c r="C119" s="3">
+      <c r="C119" s="34">
         <v>15</v>
       </c>
-      <c r="D119" s="3">
+      <c r="D119" s="34">
         <v>35</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A120" s="3">
+      <c r="A120" s="34">
         <v>64</v>
       </c>
-      <c r="B120" s="31" t="s">
+      <c r="B120" s="36" t="s">
         <v>122</v>
       </c>
-      <c r="C120" s="31">
+      <c r="C120" s="36">
         <v>15</v>
       </c>
-      <c r="D120" s="31">
+      <c r="D120" s="36">
         <v>44</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A121" s="3">
+      <c r="A121" s="34">
         <v>69</v>
       </c>
-      <c r="B121" s="31" t="s">
+      <c r="B121" s="36" t="s">
         <v>126</v>
       </c>
-      <c r="C121" s="31">
+      <c r="C121" s="36">
         <v>15</v>
       </c>
-      <c r="D121" s="31">
+      <c r="D121" s="36">
         <v>37</v>
       </c>
     </row>
-    <row r="122" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A122" s="3">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A122" s="34">
         <v>86</v>
       </c>
-      <c r="B122" s="4" t="s">
+      <c r="B122" s="29" t="s">
         <v>79</v>
       </c>
-      <c r="C122" s="3">
+      <c r="C122" s="34">
         <v>15</v>
       </c>
-      <c r="D122" s="3">
+      <c r="D122" s="34">
         <v>22</v>
       </c>
     </row>
-    <row r="123" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A123" s="3">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A123" s="34">
         <v>51</v>
       </c>
-      <c r="B123" s="4" t="s">
+      <c r="B123" s="29" t="s">
         <v>113</v>
       </c>
-      <c r="C123" s="3">
+      <c r="C123" s="34">
         <v>14</v>
       </c>
-      <c r="D123" s="3">
+      <c r="D123" s="34">
         <v>25</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A124" s="3">
+      <c r="A124" s="34">
         <v>63</v>
       </c>
-      <c r="B124" s="31" t="s">
+      <c r="B124" s="36" t="s">
         <v>64</v>
       </c>
-      <c r="C124" s="31">
+      <c r="C124" s="36">
         <v>14</v>
       </c>
-      <c r="D124" s="31">
+      <c r="D124" s="36">
         <v>27</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A125" s="3">
+      <c r="A125" s="34">
         <v>67</v>
       </c>
-      <c r="B125" s="31" t="s">
+      <c r="B125" s="36" t="s">
         <v>65</v>
       </c>
-      <c r="C125" s="31">
+      <c r="C125" s="36">
         <v>14</v>
       </c>
-      <c r="D125" s="31">
+      <c r="D125" s="36">
         <v>31</v>
       </c>
     </row>
-    <row r="126" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A126" s="3">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A126" s="34">
         <v>33</v>
       </c>
-      <c r="B126" s="4" t="s">
+      <c r="B126" s="29" t="s">
         <v>103</v>
       </c>
-      <c r="C126" s="3">
+      <c r="C126" s="34">
         <v>13</v>
       </c>
-      <c r="D126" s="3">
+      <c r="D126" s="34">
         <v>25</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:I126" xr:uid="{6E86A6EC-0EDD-4CEC-97BD-8B0DA4B183A4}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I126">
+  <autoFilter ref="A1:I126">
+    <sortState ref="A2:I126">
       <sortCondition descending="1" ref="C1"/>
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="B127:B1048576">
     <cfRule type="duplicateValues" dxfId="3" priority="1"/>
   </conditionalFormatting>
+  <hyperlinks>
+    <hyperlink ref="A1:XFD1048576" r:id="rId1" display="Sr.N."/>
+    <hyperlink ref="B125" r:id="rId2"/>
+    <hyperlink ref="B11" r:id="rId3"/>
+    <hyperlink ref="B9" r:id="rId4"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:I33"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C36" sqref="C36"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="10.7109375" style="2" customWidth="1"/>
-    <col min="3" max="3" width="39.7109375" style="8" customWidth="1"/>
+    <col min="3" max="3" width="39.7109375" style="7" customWidth="1"/>
     <col min="4" max="4" width="8.7109375" style="2"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="C2" s="16" t="s">
+      <c r="C2" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="D2" s="16" t="s">
+      <c r="D2" s="15" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="3" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B3" s="15">
+      <c r="B3" s="14">
         <v>1</v>
       </c>
-      <c r="C3" s="31" t="s">
+      <c r="C3" s="36" t="s">
         <v>127</v>
       </c>
-      <c r="D3" s="6">
+      <c r="D3" s="5">
         <v>90</v>
       </c>
     </row>
     <row r="4" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B4" s="15">
+      <c r="B4" s="14">
         <v>2</v>
       </c>
-      <c r="C4" s="31" t="s">
+      <c r="C4" s="28" t="s">
         <v>128</v>
       </c>
-      <c r="D4" s="6">
+      <c r="D4" s="5">
         <v>70</v>
       </c>
     </row>
     <row r="5" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B5" s="15">
+      <c r="B5" s="14">
         <v>3</v>
       </c>
-      <c r="C5" s="31" t="s">
+      <c r="C5" s="28" t="s">
         <v>129</v>
       </c>
-      <c r="D5" s="6">
+      <c r="D5" s="5">
         <v>91</v>
       </c>
     </row>
     <row r="6" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B6" s="15">
+      <c r="B6" s="14">
         <v>4</v>
       </c>
-      <c r="C6" s="31" t="s">
+      <c r="C6" s="28" t="s">
         <v>130</v>
       </c>
-      <c r="D6" s="6">
+      <c r="D6" s="5">
         <v>78</v>
       </c>
     </row>
     <row r="7" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B7" s="15">
+      <c r="B7" s="14">
         <v>5</v>
       </c>
-      <c r="C7" s="31" t="s">
+      <c r="C7" s="28" t="s">
         <v>131</v>
       </c>
-      <c r="D7" s="6">
+      <c r="D7" s="5">
         <v>92</v>
       </c>
     </row>
     <row r="8" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B8" s="15">
+      <c r="B8" s="14">
         <v>6</v>
       </c>
-      <c r="C8" s="31" t="s">
+      <c r="C8" s="28" t="s">
         <v>132</v>
       </c>
-      <c r="D8" s="6">
+      <c r="D8" s="5">
         <v>92</v>
       </c>
-      <c r="I8" s="31" t="s">
+      <c r="I8" s="28" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="9" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B9" s="15">
+      <c r="B9" s="14">
         <v>7</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="C9" s="6" t="s">
         <v>128</v>
       </c>
-      <c r="D9" s="6">
+      <c r="D9" s="5">
         <v>70</v>
       </c>
-      <c r="I9" s="31" t="s">
+      <c r="I9" s="28" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="10" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B10" s="15">
+    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B10" s="14">
         <v>8</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="C10" s="41" t="s">
         <v>129</v>
       </c>
-      <c r="D10" s="15">
+      <c r="D10" s="14">
         <v>91</v>
       </c>
-      <c r="I10" s="31" t="s">
+      <c r="I10" s="28" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="11" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B11" s="15">
+      <c r="B11" s="14">
         <v>9</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="C11" s="6" t="s">
         <v>130</v>
       </c>
-      <c r="D11" s="15">
+      <c r="D11" s="14">
         <v>78</v>
       </c>
-      <c r="I11" s="31" t="s">
+      <c r="I11" s="28" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="12" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B12" s="15">
+      <c r="B12" s="14">
         <v>10</v>
       </c>
-      <c r="C12" s="7" t="s">
+      <c r="C12" s="6" t="s">
         <v>131</v>
       </c>
-      <c r="D12" s="15">
+      <c r="D12" s="14">
         <v>92</v>
       </c>
-      <c r="I12" s="31" t="s">
+      <c r="I12" s="28" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="13" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B13" s="15">
+      <c r="B13" s="14">
         <v>11</v>
       </c>
-      <c r="C13" s="7" t="s">
+      <c r="C13" s="6" t="s">
         <v>132</v>
       </c>
-      <c r="D13" s="15">
+      <c r="D13" s="14">
         <v>92</v>
       </c>
-      <c r="I13" s="7" t="s">
+      <c r="I13" s="6" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="14" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B14" s="15">
+      <c r="B14" s="14">
         <v>12</v>
       </c>
-      <c r="C14" s="7" t="s">
+      <c r="C14" s="6" t="s">
         <v>133</v>
       </c>
-      <c r="D14" s="15">
+      <c r="D14" s="14">
         <v>74</v>
       </c>
-      <c r="I14" s="7" t="s">
+      <c r="I14" s="6" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="15" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B15" s="15">
+      <c r="B15" s="14">
         <v>13</v>
       </c>
-      <c r="C15" s="7" t="s">
+      <c r="C15" s="6" t="s">
         <v>134</v>
       </c>
-      <c r="D15" s="15">
+      <c r="D15" s="14">
         <v>88</v>
       </c>
-      <c r="I15" s="7" t="s">
+      <c r="I15" s="6" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="16" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B16" s="15">
+      <c r="B16" s="14">
         <v>14</v>
       </c>
-      <c r="C16" s="7" t="s">
+      <c r="C16" s="6" t="s">
         <v>135</v>
       </c>
-      <c r="D16" s="15">
+      <c r="D16" s="14">
         <v>38</v>
       </c>
-      <c r="I16" s="7"/>
+      <c r="I16" s="6"/>
     </row>
     <row r="17" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B17" s="15">
+      <c r="B17" s="14">
         <v>15</v>
       </c>
-      <c r="C17" s="7" t="s">
+      <c r="C17" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="D17" s="15">
+      <c r="D17" s="14">
         <v>77</v>
       </c>
     </row>
     <row r="18" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B18" s="15">
+      <c r="B18" s="14">
         <v>16</v>
       </c>
-      <c r="C18" s="7" t="s">
+      <c r="C18" s="6" t="s">
         <v>137</v>
       </c>
-      <c r="D18" s="15">
+      <c r="D18" s="14">
         <v>44</v>
       </c>
     </row>
     <row r="19" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B19" s="15">
+      <c r="B19" s="14">
         <v>17</v>
       </c>
-      <c r="C19" s="7" t="s">
+      <c r="C19" s="6" t="s">
         <v>138</v>
       </c>
-      <c r="D19" s="15">
+      <c r="D19" s="14">
         <v>42</v>
       </c>
     </row>
     <row r="20" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B20" s="15">
+      <c r="B20" s="14">
         <v>18</v>
       </c>
-      <c r="C20" s="7" t="s">
+      <c r="C20" s="6" t="s">
         <v>139</v>
       </c>
-      <c r="D20" s="15">
+      <c r="D20" s="14">
         <v>14</v>
       </c>
     </row>
     <row r="21" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B21" s="15">
+      <c r="B21" s="14">
         <v>19</v>
       </c>
-      <c r="C21" s="7" t="s">
+      <c r="C21" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="D21" s="15">
+      <c r="D21" s="14">
         <v>24</v>
       </c>
     </row>
     <row r="22" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B22" s="15">
+      <c r="B22" s="14">
         <v>20</v>
       </c>
-      <c r="C22" s="7" t="s">
+      <c r="C22" s="6" t="s">
         <v>141</v>
       </c>
-      <c r="D22" s="15">
+      <c r="D22" s="14">
         <v>52</v>
       </c>
     </row>
     <row r="23" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B23" s="15">
+      <c r="B23" s="14">
         <v>21</v>
       </c>
-      <c r="C23" s="7" t="s">
+      <c r="C23" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="D23" s="15">
+      <c r="D23" s="14">
         <v>30</v>
       </c>
     </row>
     <row r="24" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B24" s="15">
+      <c r="B24" s="14">
         <v>22</v>
       </c>
-      <c r="C24" s="7" t="s">
+      <c r="C24" s="6" t="s">
         <v>143</v>
       </c>
-      <c r="D24" s="15">
+      <c r="D24" s="14">
         <v>34</v>
       </c>
     </row>
     <row r="25" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B25" s="15">
+      <c r="B25" s="14">
         <v>23</v>
       </c>
-      <c r="C25" s="7" t="s">
+      <c r="C25" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="D25" s="15">
+      <c r="D25" s="14">
         <v>52</v>
       </c>
     </row>
     <row r="26" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B26" s="15">
+      <c r="B26" s="14">
         <v>24</v>
       </c>
-      <c r="C26" s="7" t="s">
+      <c r="C26" s="6" t="s">
         <v>145</v>
       </c>
-      <c r="D26" s="15">
+      <c r="D26" s="14">
         <v>22</v>
       </c>
     </row>
     <row r="27" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B27" s="15">
+      <c r="B27" s="14">
         <v>25</v>
       </c>
-      <c r="C27" s="7" t="s">
+      <c r="C27" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="D27" s="15">
+      <c r="D27" s="14">
         <v>30</v>
       </c>
     </row>
     <row r="28" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B28" s="15">
+      <c r="B28" s="14">
         <v>26</v>
       </c>
-      <c r="C28" s="7" t="s">
+      <c r="C28" s="6" t="s">
         <v>147</v>
       </c>
-      <c r="D28" s="15">
+      <c r="D28" s="14">
         <v>47</v>
       </c>
     </row>
     <row r="29" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B29" s="15">
+      <c r="B29" s="14">
         <v>27</v>
       </c>
-      <c r="C29" s="7" t="s">
+      <c r="C29" s="6" t="s">
         <v>148</v>
       </c>
-      <c r="D29" s="15">
+      <c r="D29" s="14">
         <v>23</v>
       </c>
     </row>
     <row r="30" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B30" s="15">
+      <c r="B30" s="14">
         <v>28</v>
       </c>
-      <c r="C30" s="7" t="s">
+      <c r="C30" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="D30" s="15">
+      <c r="D30" s="14">
         <v>42</v>
       </c>
     </row>
     <row r="31" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B31" s="15">
+      <c r="B31" s="14">
         <v>29</v>
       </c>
-      <c r="C31" s="7" t="s">
+      <c r="C31" s="6" t="s">
         <v>150</v>
       </c>
-      <c r="D31" s="15">
+      <c r="D31" s="14">
         <v>41</v>
       </c>
     </row>
     <row r="32" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B32" s="15">
+      <c r="B32" s="14">
         <v>30</v>
       </c>
-      <c r="C32" s="7" t="s">
+      <c r="C32" s="6" t="s">
         <v>151</v>
       </c>
-      <c r="D32" s="15">
+      <c r="D32" s="14">
         <v>21</v>
       </c>
     </row>
     <row r="33" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B33" s="15">
+      <c r="B33" s="14">
         <v>31</v>
       </c>
-      <c r="C33" s="7" t="s">
+      <c r="C33" s="6" t="s">
         <v>152</v>
       </c>
-      <c r="D33" s="15">
+      <c r="D33" s="14">
         <v>19</v>
       </c>
     </row>
@@ -3817,16 +3850,20 @@
   <conditionalFormatting sqref="C34:C1048576">
     <cfRule type="duplicateValues" dxfId="2" priority="4"/>
   </conditionalFormatting>
+  <hyperlinks>
+    <hyperlink ref="C10" r:id="rId1"/>
+    <hyperlink ref="C3" r:id="rId2"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:I122"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A25" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
@@ -3838,504 +3875,504 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="C2" s="16" t="s">
+      <c r="C2" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="D2" s="16" t="s">
+      <c r="D2" s="15" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="3" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="11">
+      <c r="B3" s="10">
         <v>1</v>
       </c>
-      <c r="C3" s="12" t="s">
+      <c r="C3" s="11" t="s">
         <v>153</v>
       </c>
-      <c r="D3" s="9">
+      <c r="D3" s="8">
         <v>13</v>
       </c>
     </row>
     <row r="4" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="11">
+      <c r="B4" s="10">
         <v>2</v>
       </c>
-      <c r="C4" s="12" t="s">
+      <c r="C4" s="11" t="s">
         <v>154</v>
       </c>
-      <c r="D4" s="9">
+      <c r="D4" s="8">
         <v>39</v>
       </c>
     </row>
     <row r="5" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="11">
+      <c r="B5" s="10">
         <v>3</v>
       </c>
-      <c r="C5" s="12" t="s">
+      <c r="C5" s="11" t="s">
         <v>155</v>
       </c>
-      <c r="D5" s="9">
+      <c r="D5" s="8">
         <v>62</v>
       </c>
     </row>
     <row r="6" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="11">
+      <c r="B6" s="10">
         <v>4</v>
       </c>
-      <c r="C6" s="12" t="s">
+      <c r="C6" s="11" t="s">
         <v>156</v>
       </c>
-      <c r="D6" s="9">
+      <c r="D6" s="8">
         <v>53</v>
       </c>
     </row>
     <row r="7" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="11">
+      <c r="B7" s="10">
         <v>5</v>
       </c>
-      <c r="C7" s="12" t="s">
+      <c r="C7" s="11" t="s">
         <v>157</v>
       </c>
-      <c r="D7" s="9">
+      <c r="D7" s="8">
         <v>70</v>
       </c>
     </row>
     <row r="8" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="11">
+      <c r="B8" s="10">
         <v>6</v>
       </c>
-      <c r="C8" s="12" t="s">
+      <c r="C8" s="11" t="s">
         <v>158</v>
       </c>
-      <c r="D8" s="9">
+      <c r="D8" s="8">
         <v>42</v>
       </c>
     </row>
     <row r="9" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="11">
+      <c r="B9" s="10">
         <v>7</v>
       </c>
-      <c r="C9" s="12" t="s">
+      <c r="C9" s="11" t="s">
         <v>159</v>
       </c>
-      <c r="D9" s="9">
+      <c r="D9" s="8">
         <v>52</v>
       </c>
     </row>
     <row r="10" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="11">
+      <c r="B10" s="10">
         <v>8</v>
       </c>
-      <c r="C10" s="12" t="s">
+      <c r="C10" s="11" t="s">
         <v>160</v>
       </c>
-      <c r="D10" s="9">
+      <c r="D10" s="8">
         <v>44</v>
       </c>
     </row>
     <row r="11" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="11">
+      <c r="B11" s="10">
         <v>9</v>
       </c>
-      <c r="C11" s="12" t="s">
+      <c r="C11" s="11" t="s">
         <v>161</v>
       </c>
-      <c r="D11" s="9">
+      <c r="D11" s="8">
         <v>29</v>
       </c>
     </row>
     <row r="12" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="11">
+      <c r="B12" s="10">
         <v>10</v>
       </c>
-      <c r="C12" s="12" t="s">
+      <c r="C12" s="11" t="s">
         <v>162</v>
       </c>
-      <c r="D12" s="9">
+      <c r="D12" s="8">
         <v>29</v>
       </c>
     </row>
     <row r="13" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="11">
+      <c r="B13" s="10">
         <v>11</v>
       </c>
-      <c r="C13" s="12" t="s">
+      <c r="C13" s="11" t="s">
         <v>163</v>
       </c>
-      <c r="D13" s="9">
+      <c r="D13" s="8">
         <v>36</v>
       </c>
     </row>
     <row r="14" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="11">
+      <c r="B14" s="10">
         <v>12</v>
       </c>
-      <c r="C14" s="12" t="s">
+      <c r="C14" s="11" t="s">
         <v>164</v>
       </c>
-      <c r="D14" s="9">
+      <c r="D14" s="8">
         <v>81</v>
       </c>
     </row>
     <row r="15" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="11">
+      <c r="B15" s="10">
         <v>13</v>
       </c>
-      <c r="C15" s="12" t="s">
+      <c r="C15" s="11" t="s">
         <v>165</v>
       </c>
-      <c r="D15" s="9">
+      <c r="D15" s="8">
         <v>82</v>
       </c>
     </row>
     <row r="16" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="11">
+      <c r="B16" s="10">
         <v>14</v>
       </c>
-      <c r="C16" s="12" t="s">
+      <c r="C16" s="11" t="s">
         <v>166</v>
       </c>
-      <c r="D16" s="9">
+      <c r="D16" s="8">
         <v>58</v>
       </c>
     </row>
     <row r="17" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="11">
+      <c r="B17" s="10">
         <v>15</v>
       </c>
-      <c r="C17" s="12" t="s">
+      <c r="C17" s="11" t="s">
         <v>167</v>
       </c>
-      <c r="D17" s="9">
+      <c r="D17" s="8">
         <v>62</v>
       </c>
-      <c r="I17" s="12" t="s">
+      <c r="I17" s="11" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="18" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="11">
+      <c r="B18" s="10">
         <v>16</v>
       </c>
-      <c r="C18" s="12" t="s">
+      <c r="C18" s="11" t="s">
         <v>168</v>
       </c>
-      <c r="D18" s="9">
+      <c r="D18" s="8">
         <v>67</v>
       </c>
-      <c r="I18" s="12" t="s">
+      <c r="I18" s="11" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="19" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="11">
+      <c r="B19" s="10">
         <v>17</v>
       </c>
-      <c r="C19" s="12" t="s">
+      <c r="C19" s="11" t="s">
         <v>169</v>
       </c>
-      <c r="D19" s="9">
+      <c r="D19" s="8">
         <v>88</v>
       </c>
-      <c r="I19" s="12" t="s">
+      <c r="I19" s="11" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="20" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="11">
+      <c r="B20" s="10">
         <v>18</v>
       </c>
-      <c r="C20" s="12" t="s">
+      <c r="C20" s="11" t="s">
         <v>170</v>
       </c>
-      <c r="D20" s="9">
+      <c r="D20" s="8">
         <v>100</v>
       </c>
-      <c r="I20" s="12" t="s">
+      <c r="I20" s="11" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="21" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="11">
+      <c r="B21" s="10">
         <v>19</v>
       </c>
-      <c r="C21" s="12" t="s">
+      <c r="C21" s="11" t="s">
         <v>171</v>
       </c>
-      <c r="D21" s="9">
+      <c r="D21" s="8">
         <v>90</v>
       </c>
-      <c r="I21" s="12" t="s">
+      <c r="I21" s="11" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="22" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="11">
+      <c r="B22" s="10">
         <v>20</v>
       </c>
-      <c r="C22" s="12" t="s">
+      <c r="C22" s="11" t="s">
         <v>172</v>
       </c>
-      <c r="D22" s="9">
+      <c r="D22" s="8">
         <v>93</v>
       </c>
-      <c r="I22" s="12" t="s">
+      <c r="I22" s="11" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="23" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="11">
+      <c r="B23" s="10">
         <v>21</v>
       </c>
-      <c r="C23" s="12" t="s">
+      <c r="C23" s="11" t="s">
         <v>173</v>
       </c>
-      <c r="D23" s="9">
+      <c r="D23" s="8">
         <v>98</v>
       </c>
     </row>
     <row r="24" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="11">
+      <c r="B24" s="10">
         <v>22</v>
       </c>
-      <c r="C24" s="12" t="s">
+      <c r="C24" s="11" t="s">
         <v>174</v>
       </c>
-      <c r="D24" s="9">
+      <c r="D24" s="8">
         <v>78</v>
       </c>
     </row>
     <row r="25" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="11">
+      <c r="B25" s="10">
         <v>23</v>
       </c>
-      <c r="C25" s="12" t="s">
+      <c r="C25" s="11" t="s">
         <v>175</v>
       </c>
-      <c r="D25" s="9">
+      <c r="D25" s="8">
         <v>84</v>
       </c>
     </row>
     <row r="26" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="11">
+      <c r="B26" s="10">
         <v>24</v>
       </c>
-      <c r="C26" s="12" t="s">
+      <c r="C26" s="11" t="s">
         <v>176</v>
       </c>
-      <c r="D26" s="9">
+      <c r="D26" s="8">
         <v>72</v>
       </c>
     </row>
     <row r="27" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="11">
+      <c r="B27" s="10">
         <v>25</v>
       </c>
-      <c r="C27" s="12" t="s">
+      <c r="C27" s="11" t="s">
         <v>177</v>
       </c>
-      <c r="D27" s="9">
+      <c r="D27" s="8">
         <v>56</v>
       </c>
     </row>
     <row r="28" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="11">
+      <c r="B28" s="10">
         <v>26</v>
       </c>
-      <c r="C28" s="12" t="s">
+      <c r="C28" s="11" t="s">
         <v>178</v>
       </c>
-      <c r="D28" s="9">
+      <c r="D28" s="8">
         <v>93</v>
       </c>
     </row>
     <row r="29" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="11">
+      <c r="B29" s="10">
         <v>27</v>
       </c>
-      <c r="C29" s="12" t="s">
+      <c r="C29" s="11" t="s">
         <v>179</v>
       </c>
-      <c r="D29" s="9">
+      <c r="D29" s="8">
         <v>78</v>
       </c>
     </row>
     <row r="30" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="11">
+      <c r="B30" s="10">
         <v>28</v>
       </c>
-      <c r="C30" s="12" t="s">
+      <c r="C30" s="11" t="s">
         <v>180</v>
       </c>
-      <c r="D30" s="9">
+      <c r="D30" s="8">
         <v>69</v>
       </c>
     </row>
     <row r="31" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="11">
+      <c r="B31" s="10">
         <v>29</v>
       </c>
-      <c r="C31" s="12" t="s">
+      <c r="C31" s="11" t="s">
         <v>181</v>
       </c>
-      <c r="D31" s="9">
+      <c r="D31" s="8">
         <v>91</v>
       </c>
     </row>
     <row r="32" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="11">
+      <c r="B32" s="10">
         <v>30</v>
       </c>
-      <c r="C32" s="12" t="s">
+      <c r="C32" s="11" t="s">
         <v>182</v>
       </c>
-      <c r="D32" s="9">
+      <c r="D32" s="8">
         <v>64</v>
       </c>
     </row>
     <row r="33" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="11">
+      <c r="B33" s="10">
         <v>31</v>
       </c>
-      <c r="C33" s="12" t="s">
+      <c r="C33" s="11" t="s">
         <v>183</v>
       </c>
-      <c r="D33" s="9">
+      <c r="D33" s="8">
         <v>91</v>
       </c>
     </row>
     <row r="34" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="11">
+      <c r="B34" s="10">
         <v>32</v>
       </c>
-      <c r="C34" s="12" t="s">
+      <c r="C34" s="11" t="s">
         <v>184</v>
       </c>
-      <c r="D34" s="9">
+      <c r="D34" s="8">
         <v>90</v>
       </c>
     </row>
     <row r="35" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="11">
+      <c r="B35" s="10">
         <v>33</v>
       </c>
-      <c r="C35" s="12" t="s">
+      <c r="C35" s="11" t="s">
         <v>185</v>
       </c>
-      <c r="D35" s="9">
+      <c r="D35" s="8">
         <v>91</v>
       </c>
     </row>
     <row r="36" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="11">
+      <c r="B36" s="10">
         <v>34</v>
       </c>
-      <c r="C36" s="12" t="s">
+      <c r="C36" s="11" t="s">
         <v>186</v>
       </c>
-      <c r="D36" s="9">
+      <c r="D36" s="8">
         <v>61</v>
       </c>
     </row>
     <row r="37" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="11">
+      <c r="B37" s="10">
         <v>35</v>
       </c>
-      <c r="C37" s="12" t="s">
+      <c r="C37" s="11" t="s">
         <v>187</v>
       </c>
-      <c r="D37" s="9">
+      <c r="D37" s="8">
         <v>58</v>
       </c>
     </row>
     <row r="38" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="11">
+      <c r="B38" s="10">
         <v>36</v>
       </c>
-      <c r="C38" s="12" t="s">
+      <c r="C38" s="11" t="s">
         <v>188</v>
       </c>
-      <c r="D38" s="9">
+      <c r="D38" s="8">
         <v>87</v>
       </c>
     </row>
     <row r="39" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="11">
+      <c r="B39" s="10">
         <v>37</v>
       </c>
-      <c r="C39" s="12" t="s">
+      <c r="C39" s="11" t="s">
         <v>189</v>
       </c>
-      <c r="D39" s="9">
+      <c r="D39" s="8">
         <v>64</v>
       </c>
     </row>
     <row r="40" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="11">
+      <c r="B40" s="10">
         <v>38</v>
       </c>
-      <c r="C40" s="12" t="s">
+      <c r="C40" s="11" t="s">
         <v>190</v>
       </c>
-      <c r="D40" s="9">
+      <c r="D40" s="8">
         <v>59</v>
       </c>
     </row>
     <row r="41" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="11">
+      <c r="B41" s="10">
         <v>39</v>
       </c>
-      <c r="C41" s="12" t="s">
+      <c r="C41" s="11" t="s">
         <v>191</v>
       </c>
-      <c r="D41" s="9">
+      <c r="D41" s="8">
         <v>50</v>
       </c>
     </row>
     <row r="42" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="11">
+      <c r="B42" s="10">
         <v>40</v>
       </c>
-      <c r="C42" s="12" t="s">
+      <c r="C42" s="11" t="s">
         <v>192</v>
       </c>
-      <c r="D42" s="9">
+      <c r="D42" s="8">
         <v>53</v>
       </c>
     </row>
     <row r="43" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="11">
+      <c r="B43" s="10">
         <v>41</v>
       </c>
-      <c r="C43" s="12" t="s">
+      <c r="C43" s="11" t="s">
         <v>193</v>
       </c>
-      <c r="D43" s="9">
+      <c r="D43" s="8">
         <v>50</v>
       </c>
     </row>
     <row r="44" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="11">
+      <c r="B44" s="10">
         <v>42</v>
       </c>
-      <c r="C44" s="12" t="s">
+      <c r="C44" s="11" t="s">
         <v>194</v>
       </c>
-      <c r="D44" s="9">
+      <c r="D44" s="8">
         <v>53</v>
       </c>
     </row>
     <row r="45" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="11">
+      <c r="B45" s="10">
         <v>43</v>
       </c>
-      <c r="C45" s="12" t="s">
+      <c r="C45" s="11" t="s">
         <v>195</v>
       </c>
-      <c r="D45" s="9">
+      <c r="D45" s="8">
         <v>17</v>
       </c>
     </row>
@@ -4422,11 +4459,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:D38"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4435,13 +4472,13 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="C2" s="16" t="s">
+      <c r="C2" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="D2" s="16" t="s">
+      <c r="D2" s="15" t="s">
         <v>68</v>
       </c>
     </row>
@@ -4449,10 +4486,10 @@
       <c r="B3" s="3">
         <v>1</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="12" t="s">
         <v>196</v>
       </c>
-      <c r="D3" s="9">
+      <c r="D3" s="8">
         <v>90</v>
       </c>
     </row>
@@ -4460,10 +4497,10 @@
       <c r="B4" s="3">
         <v>2</v>
       </c>
-      <c r="C4" s="13" t="s">
+      <c r="C4" s="12" t="s">
         <v>197</v>
       </c>
-      <c r="D4" s="9">
+      <c r="D4" s="8">
         <v>93</v>
       </c>
     </row>
@@ -4471,10 +4508,10 @@
       <c r="B5" s="3">
         <v>3</v>
       </c>
-      <c r="C5" s="13" t="s">
+      <c r="C5" s="12" t="s">
         <v>198</v>
       </c>
-      <c r="D5" s="9">
+      <c r="D5" s="8">
         <v>91</v>
       </c>
     </row>
@@ -4482,10 +4519,10 @@
       <c r="B6" s="3">
         <v>4</v>
       </c>
-      <c r="C6" s="13" t="s">
+      <c r="C6" s="12" t="s">
         <v>199</v>
       </c>
-      <c r="D6" s="9">
+      <c r="D6" s="8">
         <v>91</v>
       </c>
     </row>
@@ -4493,10 +4530,10 @@
       <c r="B7" s="3">
         <v>5</v>
       </c>
-      <c r="C7" s="13" t="s">
+      <c r="C7" s="12" t="s">
         <v>178</v>
       </c>
-      <c r="D7" s="9">
+      <c r="D7" s="8">
         <v>93</v>
       </c>
     </row>
@@ -4504,10 +4541,10 @@
       <c r="B8" s="3">
         <v>6</v>
       </c>
-      <c r="C8" s="13" t="s">
+      <c r="C8" s="12" t="s">
         <v>200</v>
       </c>
-      <c r="D8" s="9">
+      <c r="D8" s="8">
         <v>71</v>
       </c>
     </row>
@@ -4515,10 +4552,10 @@
       <c r="B9" s="3">
         <v>7</v>
       </c>
-      <c r="C9" s="13" t="s">
+      <c r="C9" s="12" t="s">
         <v>201</v>
       </c>
-      <c r="D9" s="9">
+      <c r="D9" s="8">
         <v>77</v>
       </c>
     </row>
@@ -4526,10 +4563,10 @@
       <c r="B10" s="3">
         <v>8</v>
       </c>
-      <c r="C10" s="13" t="s">
+      <c r="C10" s="12" t="s">
         <v>202</v>
       </c>
-      <c r="D10" s="9">
+      <c r="D10" s="8">
         <v>40</v>
       </c>
     </row>
@@ -4537,10 +4574,10 @@
       <c r="B11" s="3">
         <v>9</v>
       </c>
-      <c r="C11" s="13" t="s">
+      <c r="C11" s="12" t="s">
         <v>203</v>
       </c>
-      <c r="D11" s="9">
+      <c r="D11" s="8">
         <v>74</v>
       </c>
     </row>
@@ -4548,10 +4585,10 @@
       <c r="B12" s="3">
         <v>10</v>
       </c>
-      <c r="C12" s="13" t="s">
+      <c r="C12" s="12" t="s">
         <v>204</v>
       </c>
-      <c r="D12" s="9">
+      <c r="D12" s="8">
         <v>72</v>
       </c>
     </row>
@@ -4559,10 +4596,10 @@
       <c r="B13" s="3">
         <v>11</v>
       </c>
-      <c r="C13" s="13" t="s">
+      <c r="C13" s="12" t="s">
         <v>205</v>
       </c>
-      <c r="D13" s="9">
+      <c r="D13" s="8">
         <v>62</v>
       </c>
     </row>
@@ -4570,10 +4607,10 @@
       <c r="B14" s="3">
         <v>12</v>
       </c>
-      <c r="C14" s="13" t="s">
+      <c r="C14" s="12" t="s">
         <v>206</v>
       </c>
-      <c r="D14" s="9">
+      <c r="D14" s="8">
         <v>44</v>
       </c>
     </row>
@@ -4581,10 +4618,10 @@
       <c r="B15" s="3">
         <v>13</v>
       </c>
-      <c r="C15" s="13" t="s">
+      <c r="C15" s="12" t="s">
         <v>207</v>
       </c>
-      <c r="D15" s="9">
+      <c r="D15" s="8">
         <v>53</v>
       </c>
     </row>
@@ -4592,10 +4629,10 @@
       <c r="B16" s="3">
         <v>14</v>
       </c>
-      <c r="C16" s="13" t="s">
+      <c r="C16" s="12" t="s">
         <v>208</v>
       </c>
-      <c r="D16" s="9">
+      <c r="D16" s="8">
         <v>42</v>
       </c>
     </row>
@@ -4603,10 +4640,10 @@
       <c r="B17" s="3">
         <v>15</v>
       </c>
-      <c r="C17" s="13" t="s">
+      <c r="C17" s="12" t="s">
         <v>209</v>
       </c>
-      <c r="D17" s="9">
+      <c r="D17" s="8">
         <v>59</v>
       </c>
     </row>
@@ -4614,10 +4651,10 @@
       <c r="B18" s="3">
         <v>16</v>
       </c>
-      <c r="C18" s="13" t="s">
+      <c r="C18" s="12" t="s">
         <v>210</v>
       </c>
-      <c r="D18" s="9">
+      <c r="D18" s="8">
         <v>59</v>
       </c>
     </row>
@@ -4625,10 +4662,10 @@
       <c r="B19" s="3">
         <v>17</v>
       </c>
-      <c r="C19" s="13" t="s">
+      <c r="C19" s="12" t="s">
         <v>211</v>
       </c>
-      <c r="D19" s="9">
+      <c r="D19" s="8">
         <v>74</v>
       </c>
     </row>
@@ -4636,10 +4673,10 @@
       <c r="B20" s="3">
         <v>18</v>
       </c>
-      <c r="C20" s="13" t="s">
+      <c r="C20" s="12" t="s">
         <v>212</v>
       </c>
-      <c r="D20" s="9">
+      <c r="D20" s="8">
         <v>54</v>
       </c>
     </row>
@@ -4647,10 +4684,10 @@
       <c r="B21" s="3">
         <v>19</v>
       </c>
-      <c r="C21" s="13" t="s">
+      <c r="C21" s="12" t="s">
         <v>213</v>
       </c>
-      <c r="D21" s="9">
+      <c r="D21" s="8">
         <v>51</v>
       </c>
     </row>
@@ -4658,10 +4695,10 @@
       <c r="B22" s="3">
         <v>20</v>
       </c>
-      <c r="C22" s="13" t="s">
+      <c r="C22" s="12" t="s">
         <v>214</v>
       </c>
-      <c r="D22" s="9">
+      <c r="D22" s="8">
         <v>36</v>
       </c>
     </row>
@@ -4669,10 +4706,10 @@
       <c r="B23" s="3">
         <v>21</v>
       </c>
-      <c r="C23" s="13" t="s">
+      <c r="C23" s="12" t="s">
         <v>180</v>
       </c>
-      <c r="D23" s="9">
+      <c r="D23" s="8">
         <v>69</v>
       </c>
     </row>
@@ -4680,10 +4717,10 @@
       <c r="B24" s="3">
         <v>22</v>
       </c>
-      <c r="C24" s="13" t="s">
+      <c r="C24" s="12" t="s">
         <v>215</v>
       </c>
-      <c r="D24" s="9">
+      <c r="D24" s="8">
         <v>77</v>
       </c>
     </row>
@@ -4691,10 +4728,10 @@
       <c r="B25" s="3">
         <v>23</v>
       </c>
-      <c r="C25" s="13" t="s">
+      <c r="C25" s="12" t="s">
         <v>216</v>
       </c>
-      <c r="D25" s="9">
+      <c r="D25" s="8">
         <v>84</v>
       </c>
     </row>
@@ -4702,10 +4739,10 @@
       <c r="B26" s="3">
         <v>24</v>
       </c>
-      <c r="C26" s="13" t="s">
+      <c r="C26" s="12" t="s">
         <v>217</v>
       </c>
-      <c r="D26" s="9">
+      <c r="D26" s="8">
         <v>91</v>
       </c>
     </row>
@@ -4713,10 +4750,10 @@
       <c r="B27" s="3">
         <v>25</v>
       </c>
-      <c r="C27" s="13" t="s">
+      <c r="C27" s="12" t="s">
         <v>218</v>
       </c>
-      <c r="D27" s="9">
+      <c r="D27" s="8">
         <v>91</v>
       </c>
     </row>
@@ -4724,10 +4761,10 @@
       <c r="B28" s="3">
         <v>26</v>
       </c>
-      <c r="C28" s="13" t="s">
+      <c r="C28" s="12" t="s">
         <v>219</v>
       </c>
-      <c r="D28" s="9">
+      <c r="D28" s="8">
         <v>92</v>
       </c>
     </row>
@@ -4735,10 +4772,10 @@
       <c r="B29" s="3">
         <v>27</v>
       </c>
-      <c r="C29" s="13" t="s">
+      <c r="C29" s="12" t="s">
         <v>220</v>
       </c>
-      <c r="D29" s="9">
+      <c r="D29" s="8">
         <v>92</v>
       </c>
     </row>
@@ -4746,10 +4783,10 @@
       <c r="B30" s="3">
         <v>28</v>
       </c>
-      <c r="C30" s="13" t="s">
+      <c r="C30" s="12" t="s">
         <v>221</v>
       </c>
-      <c r="D30" s="9">
+      <c r="D30" s="8">
         <v>39</v>
       </c>
     </row>
@@ -4757,10 +4794,10 @@
       <c r="B31" s="3">
         <v>29</v>
       </c>
-      <c r="C31" s="13" t="s">
+      <c r="C31" s="12" t="s">
         <v>222</v>
       </c>
-      <c r="D31" s="9">
+      <c r="D31" s="8">
         <v>45</v>
       </c>
     </row>
@@ -4768,10 +4805,10 @@
       <c r="B32" s="3">
         <v>30</v>
       </c>
-      <c r="C32" s="13" t="s">
+      <c r="C32" s="12" t="s">
         <v>223</v>
       </c>
-      <c r="D32" s="9">
+      <c r="D32" s="8">
         <v>77</v>
       </c>
     </row>
@@ -4779,10 +4816,10 @@
       <c r="B33" s="3">
         <v>31</v>
       </c>
-      <c r="C33" s="13" t="s">
+      <c r="C33" s="12" t="s">
         <v>224</v>
       </c>
-      <c r="D33" s="9">
+      <c r="D33" s="8">
         <v>86</v>
       </c>
     </row>
@@ -4790,10 +4827,10 @@
       <c r="B34" s="3">
         <v>32</v>
       </c>
-      <c r="C34" s="13" t="s">
+      <c r="C34" s="12" t="s">
         <v>225</v>
       </c>
-      <c r="D34" s="9">
+      <c r="D34" s="8">
         <v>84</v>
       </c>
     </row>
@@ -4801,10 +4838,10 @@
       <c r="B35" s="3">
         <v>33</v>
       </c>
-      <c r="C35" s="13" t="s">
+      <c r="C35" s="12" t="s">
         <v>226</v>
       </c>
-      <c r="D35" s="9">
+      <c r="D35" s="8">
         <v>85</v>
       </c>
     </row>
@@ -4812,10 +4849,10 @@
       <c r="B36" s="3">
         <v>34</v>
       </c>
-      <c r="C36" s="13" t="s">
+      <c r="C36" s="12" t="s">
         <v>227</v>
       </c>
-      <c r="D36" s="9">
+      <c r="D36" s="8">
         <v>94</v>
       </c>
     </row>
@@ -4823,10 +4860,10 @@
       <c r="B37" s="3">
         <v>35</v>
       </c>
-      <c r="C37" s="13" t="s">
+      <c r="C37" s="12" t="s">
         <v>228</v>
       </c>
-      <c r="D37" s="9">
+      <c r="D37" s="8">
         <v>88</v>
       </c>
     </row>
@@ -4834,10 +4871,10 @@
       <c r="B38" s="3">
         <v>36</v>
       </c>
-      <c r="C38" s="13" t="s">
+      <c r="C38" s="12" t="s">
         <v>229</v>
       </c>
-      <c r="D38" s="9">
+      <c r="D38" s="8">
         <v>93</v>
       </c>
     </row>
@@ -4847,7 +4884,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1"/>
   <dimension ref="B2:H43"/>
   <sheetViews>
@@ -4864,25 +4901,25 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="C2" s="16" t="s">
+      <c r="C2" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="D2" s="16" t="s">
+      <c r="D2" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="E2" s="16" t="s">
+      <c r="E2" s="15" t="s">
         <v>307</v>
       </c>
-      <c r="F2" s="16" t="s">
+      <c r="F2" s="15" t="s">
         <v>308</v>
       </c>
-      <c r="G2" s="16" t="s">
+      <c r="G2" s="15" t="s">
         <v>280</v>
       </c>
-      <c r="H2" s="16" t="s">
+      <c r="H2" s="15" t="s">
         <v>318</v>
       </c>
     </row>
@@ -4890,39 +4927,39 @@
       <c r="B3" s="3">
         <v>1</v>
       </c>
-      <c r="C3" s="18" t="s">
+      <c r="C3" s="17" t="s">
         <v>230</v>
       </c>
-      <c r="D3" s="19">
+      <c r="D3" s="18">
         <v>24</v>
       </c>
-      <c r="E3" s="19"/>
-      <c r="F3" s="19"/>
-      <c r="G3" s="9" t="s">
+      <c r="E3" s="18"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="8" t="s">
         <v>231</v>
       </c>
-      <c r="H3" s="24"/>
+      <c r="H3" s="22"/>
     </row>
     <row r="4" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B4" s="3">
         <v>2</v>
       </c>
-      <c r="C4" s="26" t="s">
+      <c r="C4" s="23" t="s">
         <v>232</v>
       </c>
-      <c r="D4" s="29">
+      <c r="D4" s="26">
         <v>41</v>
       </c>
-      <c r="E4" s="29">
+      <c r="E4" s="26">
         <v>21</v>
       </c>
-      <c r="F4" s="29">
+      <c r="F4" s="26">
         <v>39</v>
       </c>
-      <c r="G4" s="6" t="s">
+      <c r="G4" s="5" t="s">
         <v>231</v>
       </c>
-      <c r="H4" s="24" t="s">
+      <c r="H4" s="22" t="s">
         <v>304</v>
       </c>
     </row>
@@ -4930,56 +4967,56 @@
       <c r="B5" s="3">
         <v>3</v>
       </c>
-      <c r="C5" s="18" t="s">
+      <c r="C5" s="17" t="s">
         <v>233</v>
       </c>
-      <c r="D5" s="19">
+      <c r="D5" s="18">
         <v>30</v>
       </c>
-      <c r="E5" s="19"/>
-      <c r="F5" s="19"/>
-      <c r="G5" s="9" t="s">
+      <c r="E5" s="18"/>
+      <c r="F5" s="18"/>
+      <c r="G5" s="8" t="s">
         <v>234</v>
       </c>
-      <c r="H5" s="24"/>
+      <c r="H5" s="22"/>
     </row>
     <row r="6" spans="2:8" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="B6" s="3">
         <v>4</v>
       </c>
-      <c r="C6" s="18" t="s">
+      <c r="C6" s="17" t="s">
         <v>235</v>
       </c>
-      <c r="D6" s="19">
+      <c r="D6" s="18">
         <v>17</v>
       </c>
-      <c r="E6" s="19"/>
-      <c r="F6" s="19"/>
-      <c r="G6" s="9" t="s">
+      <c r="E6" s="18"/>
+      <c r="F6" s="18"/>
+      <c r="G6" s="8" t="s">
         <v>236</v>
       </c>
-      <c r="H6" s="24"/>
+      <c r="H6" s="22"/>
     </row>
     <row r="7" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B7" s="3">
         <v>5</v>
       </c>
-      <c r="C7" s="26" t="s">
+      <c r="C7" s="23" t="s">
         <v>237</v>
       </c>
-      <c r="D7" s="29">
+      <c r="D7" s="26">
         <v>30</v>
       </c>
-      <c r="E7" s="29">
+      <c r="E7" s="26">
         <v>49</v>
       </c>
-      <c r="F7" s="29">
+      <c r="F7" s="26">
         <v>37</v>
       </c>
-      <c r="G7" s="30" t="s">
+      <c r="G7" s="27" t="s">
         <v>309</v>
       </c>
-      <c r="H7" s="24" t="s">
+      <c r="H7" s="22" t="s">
         <v>311</v>
       </c>
     </row>
@@ -4987,260 +5024,260 @@
       <c r="B8" s="3">
         <v>6</v>
       </c>
-      <c r="C8" s="18" t="s">
+      <c r="C8" s="17" t="s">
         <v>238</v>
       </c>
-      <c r="D8" s="19">
+      <c r="D8" s="18">
         <v>21</v>
       </c>
-      <c r="E8" s="19"/>
-      <c r="F8" s="19"/>
-      <c r="G8" s="9" t="s">
+      <c r="E8" s="18"/>
+      <c r="F8" s="18"/>
+      <c r="G8" s="8" t="s">
         <v>236</v>
       </c>
-      <c r="H8" s="24"/>
+      <c r="H8" s="22"/>
     </row>
     <row r="9" spans="2:8" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="B9" s="3">
         <v>7</v>
       </c>
-      <c r="C9" s="18" t="s">
+      <c r="C9" s="17" t="s">
         <v>239</v>
       </c>
-      <c r="D9" s="19">
+      <c r="D9" s="18">
         <v>28</v>
       </c>
-      <c r="E9" s="19"/>
-      <c r="F9" s="19"/>
-      <c r="G9" s="9" t="s">
+      <c r="E9" s="18"/>
+      <c r="F9" s="18"/>
+      <c r="G9" s="8" t="s">
         <v>236</v>
       </c>
-      <c r="H9" s="24"/>
+      <c r="H9" s="22"/>
     </row>
     <row r="10" spans="2:8" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="B10" s="3">
         <v>8</v>
       </c>
-      <c r="C10" s="18" t="s">
+      <c r="C10" s="17" t="s">
         <v>240</v>
       </c>
-      <c r="D10" s="19">
+      <c r="D10" s="18">
         <v>13</v>
       </c>
-      <c r="E10" s="19"/>
-      <c r="F10" s="19"/>
-      <c r="G10" s="9" t="s">
+      <c r="E10" s="18"/>
+      <c r="F10" s="18"/>
+      <c r="G10" s="8" t="s">
         <v>236</v>
       </c>
-      <c r="H10" s="24"/>
+      <c r="H10" s="22"/>
     </row>
     <row r="11" spans="2:8" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="B11" s="3">
         <v>9</v>
       </c>
-      <c r="C11" s="18" t="s">
+      <c r="C11" s="17" t="s">
         <v>241</v>
       </c>
-      <c r="D11" s="19">
+      <c r="D11" s="18">
         <v>12</v>
       </c>
-      <c r="E11" s="19"/>
-      <c r="F11" s="19"/>
-      <c r="G11" s="9" t="s">
+      <c r="E11" s="18"/>
+      <c r="F11" s="18"/>
+      <c r="G11" s="8" t="s">
         <v>236</v>
       </c>
-      <c r="H11" s="24"/>
+      <c r="H11" s="22"/>
     </row>
     <row r="12" spans="2:8" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="B12" s="3">
         <v>10</v>
       </c>
-      <c r="C12" s="18" t="s">
+      <c r="C12" s="17" t="s">
         <v>242</v>
       </c>
-      <c r="D12" s="19">
+      <c r="D12" s="18">
         <v>17</v>
       </c>
-      <c r="E12" s="19"/>
-      <c r="F12" s="19"/>
-      <c r="G12" s="9" t="s">
+      <c r="E12" s="18"/>
+      <c r="F12" s="18"/>
+      <c r="G12" s="8" t="s">
         <v>236</v>
       </c>
-      <c r="H12" s="24"/>
+      <c r="H12" s="22"/>
     </row>
     <row r="13" spans="2:8" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="B13" s="3">
         <v>11</v>
       </c>
-      <c r="C13" s="18" t="s">
+      <c r="C13" s="17" t="s">
         <v>243</v>
       </c>
-      <c r="D13" s="19">
+      <c r="D13" s="18">
         <v>12</v>
       </c>
-      <c r="E13" s="19"/>
-      <c r="F13" s="19"/>
-      <c r="G13" s="9" t="s">
+      <c r="E13" s="18"/>
+      <c r="F13" s="18"/>
+      <c r="G13" s="8" t="s">
         <v>236</v>
       </c>
-      <c r="H13" s="24"/>
+      <c r="H13" s="22"/>
     </row>
     <row r="14" spans="2:8" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="B14" s="3">
         <v>12</v>
       </c>
-      <c r="C14" s="18" t="s">
+      <c r="C14" s="17" t="s">
         <v>244</v>
       </c>
-      <c r="D14" s="19">
+      <c r="D14" s="18">
         <v>14</v>
       </c>
-      <c r="E14" s="19"/>
-      <c r="F14" s="19"/>
-      <c r="G14" s="9" t="s">
+      <c r="E14" s="18"/>
+      <c r="F14" s="18"/>
+      <c r="G14" s="8" t="s">
         <v>236</v>
       </c>
-      <c r="H14" s="24"/>
+      <c r="H14" s="22"/>
     </row>
     <row r="15" spans="2:8" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="B15" s="3">
         <v>13</v>
       </c>
-      <c r="C15" s="18" t="s">
+      <c r="C15" s="17" t="s">
         <v>245</v>
       </c>
-      <c r="D15" s="19">
+      <c r="D15" s="18">
         <v>55</v>
       </c>
-      <c r="E15" s="19"/>
-      <c r="F15" s="19"/>
-      <c r="G15" s="9" t="s">
+      <c r="E15" s="18"/>
+      <c r="F15" s="18"/>
+      <c r="G15" s="8" t="s">
         <v>234</v>
       </c>
-      <c r="H15" s="24"/>
+      <c r="H15" s="22"/>
     </row>
     <row r="16" spans="2:8" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="B16" s="3">
         <v>14</v>
       </c>
-      <c r="C16" s="18" t="s">
+      <c r="C16" s="17" t="s">
         <v>246</v>
       </c>
-      <c r="D16" s="19">
+      <c r="D16" s="18">
         <v>60</v>
       </c>
-      <c r="E16" s="19"/>
-      <c r="F16" s="19"/>
-      <c r="G16" s="9" t="s">
+      <c r="E16" s="18"/>
+      <c r="F16" s="18"/>
+      <c r="G16" s="8" t="s">
         <v>247</v>
       </c>
-      <c r="H16" s="24"/>
+      <c r="H16" s="22"/>
     </row>
     <row r="17" spans="2:8" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="B17" s="3">
         <v>15</v>
       </c>
-      <c r="C17" s="18" t="s">
+      <c r="C17" s="17" t="s">
         <v>248</v>
       </c>
-      <c r="D17" s="19">
+      <c r="D17" s="18">
         <v>11</v>
       </c>
-      <c r="E17" s="19"/>
-      <c r="F17" s="19"/>
-      <c r="G17" s="9" t="s">
+      <c r="E17" s="18"/>
+      <c r="F17" s="18"/>
+      <c r="G17" s="8" t="s">
         <v>234</v>
       </c>
-      <c r="H17" s="24"/>
+      <c r="H17" s="22"/>
     </row>
     <row r="18" spans="2:8" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="B18" s="3">
         <v>16</v>
       </c>
-      <c r="C18" s="18" t="s">
+      <c r="C18" s="17" t="s">
         <v>249</v>
       </c>
-      <c r="D18" s="19">
+      <c r="D18" s="18">
         <v>41</v>
       </c>
-      <c r="E18" s="19"/>
-      <c r="F18" s="19"/>
-      <c r="G18" s="9" t="s">
+      <c r="E18" s="18"/>
+      <c r="F18" s="18"/>
+      <c r="G18" s="8" t="s">
         <v>250</v>
       </c>
-      <c r="H18" s="24"/>
+      <c r="H18" s="22"/>
     </row>
     <row r="19" spans="2:8" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="B19" s="3">
         <v>17</v>
       </c>
-      <c r="C19" s="18" t="s">
+      <c r="C19" s="17" t="s">
         <v>251</v>
       </c>
-      <c r="D19" s="19">
+      <c r="D19" s="18">
         <v>19</v>
       </c>
-      <c r="E19" s="19"/>
-      <c r="F19" s="19"/>
-      <c r="G19" s="9" t="s">
+      <c r="E19" s="18"/>
+      <c r="F19" s="18"/>
+      <c r="G19" s="8" t="s">
         <v>250</v>
       </c>
-      <c r="H19" s="24"/>
+      <c r="H19" s="22"/>
     </row>
     <row r="20" spans="2:8" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="B20" s="3">
         <v>18</v>
       </c>
-      <c r="C20" s="18" t="s">
+      <c r="C20" s="17" t="s">
         <v>252</v>
       </c>
-      <c r="D20" s="19">
+      <c r="D20" s="18">
         <v>12</v>
       </c>
-      <c r="E20" s="19"/>
-      <c r="F20" s="19"/>
-      <c r="G20" s="9" t="s">
+      <c r="E20" s="18"/>
+      <c r="F20" s="18"/>
+      <c r="G20" s="8" t="s">
         <v>250</v>
       </c>
-      <c r="H20" s="24"/>
+      <c r="H20" s="22"/>
     </row>
     <row r="21" spans="2:8" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="B21" s="3">
         <v>19</v>
       </c>
-      <c r="C21" s="18" t="s">
+      <c r="C21" s="17" t="s">
         <v>253</v>
       </c>
-      <c r="D21" s="19">
+      <c r="D21" s="18">
         <v>63</v>
       </c>
-      <c r="E21" s="19"/>
-      <c r="F21" s="19"/>
-      <c r="G21" s="9" t="s">
+      <c r="E21" s="18"/>
+      <c r="F21" s="18"/>
+      <c r="G21" s="8" t="s">
         <v>254</v>
       </c>
-      <c r="H21" s="24"/>
+      <c r="H21" s="22"/>
     </row>
     <row r="22" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B22" s="3">
         <v>20</v>
       </c>
-      <c r="C22" s="26" t="s">
+      <c r="C22" s="23" t="s">
         <v>255</v>
       </c>
-      <c r="D22" s="29">
+      <c r="D22" s="26">
         <v>27</v>
       </c>
-      <c r="E22" s="29">
+      <c r="E22" s="26">
         <v>26</v>
       </c>
-      <c r="F22" s="29">
+      <c r="F22" s="26">
         <v>38</v>
       </c>
-      <c r="G22" s="30" t="s">
+      <c r="G22" s="27" t="s">
         <v>310</v>
       </c>
-      <c r="H22" s="24" t="s">
+      <c r="H22" s="22" t="s">
         <v>306</v>
       </c>
     </row>
@@ -5248,260 +5285,260 @@
       <c r="B23" s="3">
         <v>21</v>
       </c>
-      <c r="C23" s="18" t="s">
+      <c r="C23" s="17" t="s">
         <v>256</v>
       </c>
-      <c r="D23" s="19">
+      <c r="D23" s="18">
         <v>11</v>
       </c>
-      <c r="E23" s="19"/>
-      <c r="F23" s="19"/>
-      <c r="G23" s="9" t="s">
+      <c r="E23" s="18"/>
+      <c r="F23" s="18"/>
+      <c r="G23" s="8" t="s">
         <v>254</v>
       </c>
-      <c r="H23" s="24"/>
+      <c r="H23" s="22"/>
     </row>
     <row r="24" spans="2:8" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="B24" s="3">
         <v>22</v>
       </c>
-      <c r="C24" s="27" t="s">
+      <c r="C24" s="24" t="s">
         <v>257</v>
       </c>
-      <c r="D24" s="19">
+      <c r="D24" s="18">
         <v>52</v>
       </c>
-      <c r="E24" s="19">
+      <c r="E24" s="18">
         <v>50</v>
       </c>
-      <c r="F24" s="19">
+      <c r="F24" s="18">
         <v>54</v>
       </c>
-      <c r="G24" s="9" t="s">
+      <c r="G24" s="8" t="s">
         <v>258</v>
       </c>
-      <c r="H24" s="24"/>
+      <c r="H24" s="22"/>
     </row>
     <row r="25" spans="2:8" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="B25" s="3">
         <v>23</v>
       </c>
-      <c r="C25" s="18" t="s">
+      <c r="C25" s="17" t="s">
         <v>259</v>
       </c>
-      <c r="D25" s="19">
+      <c r="D25" s="18">
         <v>53</v>
       </c>
-      <c r="E25" s="19"/>
-      <c r="F25" s="19"/>
-      <c r="G25" s="9" t="s">
+      <c r="E25" s="18"/>
+      <c r="F25" s="18"/>
+      <c r="G25" s="8" t="s">
         <v>258</v>
       </c>
-      <c r="H25" s="24"/>
+      <c r="H25" s="22"/>
     </row>
     <row r="26" spans="2:8" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="B26" s="3">
         <v>24</v>
       </c>
-      <c r="C26" s="18" t="s">
+      <c r="C26" s="17" t="s">
         <v>260</v>
       </c>
-      <c r="D26" s="19">
+      <c r="D26" s="18">
         <v>36</v>
       </c>
-      <c r="E26" s="19"/>
-      <c r="F26" s="19"/>
-      <c r="G26" s="9" t="s">
+      <c r="E26" s="18"/>
+      <c r="F26" s="18"/>
+      <c r="G26" s="8" t="s">
         <v>258</v>
       </c>
-      <c r="H26" s="24"/>
+      <c r="H26" s="22"/>
     </row>
     <row r="27" spans="2:8" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="B27" s="3">
         <v>25</v>
       </c>
-      <c r="C27" s="18" t="s">
+      <c r="C27" s="17" t="s">
         <v>261</v>
       </c>
-      <c r="D27" s="19">
+      <c r="D27" s="18">
         <v>49</v>
       </c>
-      <c r="E27" s="19"/>
-      <c r="F27" s="19"/>
-      <c r="G27" s="9" t="s">
+      <c r="E27" s="18"/>
+      <c r="F27" s="18"/>
+      <c r="G27" s="8" t="s">
         <v>258</v>
       </c>
-      <c r="H27" s="24"/>
+      <c r="H27" s="22"/>
     </row>
     <row r="28" spans="2:8" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="B28" s="3">
         <v>26</v>
       </c>
-      <c r="C28" s="18" t="s">
+      <c r="C28" s="17" t="s">
         <v>262</v>
       </c>
-      <c r="D28" s="19">
+      <c r="D28" s="18">
         <v>20</v>
       </c>
-      <c r="E28" s="19"/>
-      <c r="F28" s="19"/>
-      <c r="G28" s="9" t="s">
+      <c r="E28" s="18"/>
+      <c r="F28" s="18"/>
+      <c r="G28" s="8" t="s">
         <v>258</v>
       </c>
-      <c r="H28" s="24"/>
+      <c r="H28" s="22"/>
     </row>
     <row r="29" spans="2:8" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="B29" s="3">
         <v>27</v>
       </c>
-      <c r="C29" s="18" t="s">
+      <c r="C29" s="17" t="s">
         <v>263</v>
       </c>
-      <c r="D29" s="19">
+      <c r="D29" s="18">
         <v>42</v>
       </c>
-      <c r="E29" s="19"/>
-      <c r="F29" s="19"/>
-      <c r="G29" s="9" t="s">
+      <c r="E29" s="18"/>
+      <c r="F29" s="18"/>
+      <c r="G29" s="8" t="s">
         <v>258</v>
       </c>
-      <c r="H29" s="24"/>
+      <c r="H29" s="22"/>
     </row>
     <row r="30" spans="2:8" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="B30" s="3">
         <v>28</v>
       </c>
-      <c r="C30" s="18" t="s">
+      <c r="C30" s="17" t="s">
         <v>264</v>
       </c>
-      <c r="D30" s="19">
+      <c r="D30" s="18">
         <v>20</v>
       </c>
-      <c r="E30" s="19"/>
-      <c r="F30" s="19"/>
-      <c r="G30" s="9" t="s">
+      <c r="E30" s="18"/>
+      <c r="F30" s="18"/>
+      <c r="G30" s="8" t="s">
         <v>258</v>
       </c>
-      <c r="H30" s="24"/>
+      <c r="H30" s="22"/>
     </row>
     <row r="31" spans="2:8" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="B31" s="3">
         <v>29</v>
       </c>
-      <c r="C31" s="18" t="s">
+      <c r="C31" s="17" t="s">
         <v>265</v>
       </c>
-      <c r="D31" s="19">
+      <c r="D31" s="18">
         <v>25</v>
       </c>
-      <c r="E31" s="19"/>
-      <c r="F31" s="19"/>
-      <c r="G31" s="9" t="s">
+      <c r="E31" s="18"/>
+      <c r="F31" s="18"/>
+      <c r="G31" s="8" t="s">
         <v>258</v>
       </c>
-      <c r="H31" s="24"/>
+      <c r="H31" s="22"/>
     </row>
     <row r="32" spans="2:8" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="B32" s="3">
         <v>30</v>
       </c>
-      <c r="C32" s="18" t="s">
+      <c r="C32" s="17" t="s">
         <v>266</v>
       </c>
-      <c r="D32" s="19">
+      <c r="D32" s="18">
         <v>19</v>
       </c>
-      <c r="E32" s="19"/>
-      <c r="F32" s="19"/>
-      <c r="G32" s="9" t="s">
+      <c r="E32" s="18"/>
+      <c r="F32" s="18"/>
+      <c r="G32" s="8" t="s">
         <v>258</v>
       </c>
-      <c r="H32" s="24"/>
+      <c r="H32" s="22"/>
     </row>
     <row r="33" spans="2:8" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="B33" s="3">
         <v>31</v>
       </c>
-      <c r="C33" s="18" t="s">
+      <c r="C33" s="17" t="s">
         <v>267</v>
       </c>
-      <c r="D33" s="19">
+      <c r="D33" s="18">
         <v>17</v>
       </c>
-      <c r="E33" s="19"/>
-      <c r="F33" s="19"/>
-      <c r="G33" s="9" t="s">
+      <c r="E33" s="18"/>
+      <c r="F33" s="18"/>
+      <c r="G33" s="8" t="s">
         <v>258</v>
       </c>
-      <c r="H33" s="24"/>
+      <c r="H33" s="22"/>
     </row>
     <row r="34" spans="2:8" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="B34" s="3">
         <v>32</v>
       </c>
-      <c r="C34" s="18" t="s">
+      <c r="C34" s="17" t="s">
         <v>268</v>
       </c>
-      <c r="D34" s="19">
+      <c r="D34" s="18">
         <v>18</v>
       </c>
-      <c r="E34" s="19"/>
-      <c r="F34" s="19"/>
-      <c r="G34" s="9" t="s">
+      <c r="E34" s="18"/>
+      <c r="F34" s="18"/>
+      <c r="G34" s="8" t="s">
         <v>258</v>
       </c>
-      <c r="H34" s="24"/>
+      <c r="H34" s="22"/>
     </row>
     <row r="35" spans="2:8" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="B35" s="3">
         <v>33</v>
       </c>
-      <c r="C35" s="18" t="s">
+      <c r="C35" s="17" t="s">
         <v>269</v>
       </c>
-      <c r="D35" s="19">
+      <c r="D35" s="18">
         <v>48</v>
       </c>
-      <c r="E35" s="19"/>
-      <c r="F35" s="19"/>
-      <c r="G35" s="9" t="s">
+      <c r="E35" s="18"/>
+      <c r="F35" s="18"/>
+      <c r="G35" s="8" t="s">
         <v>270</v>
       </c>
-      <c r="H35" s="24"/>
+      <c r="H35" s="22"/>
     </row>
     <row r="36" spans="2:8" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="B36" s="3">
         <v>34</v>
       </c>
-      <c r="C36" s="18" t="s">
+      <c r="C36" s="17" t="s">
         <v>271</v>
       </c>
-      <c r="D36" s="19">
+      <c r="D36" s="18">
         <v>21</v>
       </c>
-      <c r="E36" s="19"/>
-      <c r="F36" s="19"/>
-      <c r="G36" s="9" t="s">
+      <c r="E36" s="18"/>
+      <c r="F36" s="18"/>
+      <c r="G36" s="8" t="s">
         <v>272</v>
       </c>
-      <c r="H36" s="24"/>
+      <c r="H36" s="22"/>
     </row>
     <row r="37" spans="2:8" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="B37" s="3">
         <v>35</v>
       </c>
-      <c r="C37" s="27" t="s">
+      <c r="C37" s="24" t="s">
         <v>273</v>
       </c>
-      <c r="D37" s="19">
+      <c r="D37" s="18">
         <v>11</v>
       </c>
-      <c r="E37" s="19"/>
-      <c r="F37" s="19"/>
-      <c r="G37" s="9" t="s">
+      <c r="E37" s="18"/>
+      <c r="F37" s="18"/>
+      <c r="G37" s="8" t="s">
         <v>247</v>
       </c>
-      <c r="H37" s="24" t="s">
+      <c r="H37" s="22" t="s">
         <v>305</v>
       </c>
     </row>
@@ -5509,39 +5546,39 @@
       <c r="B38" s="3">
         <v>36</v>
       </c>
-      <c r="C38" s="18" t="s">
+      <c r="C38" s="17" t="s">
         <v>274</v>
       </c>
-      <c r="D38" s="19">
+      <c r="D38" s="18">
         <v>2</v>
       </c>
-      <c r="E38" s="19"/>
-      <c r="F38" s="19"/>
-      <c r="G38" s="9" t="s">
+      <c r="E38" s="18"/>
+      <c r="F38" s="18"/>
+      <c r="G38" s="8" t="s">
         <v>247</v>
       </c>
-      <c r="H38" s="24"/>
+      <c r="H38" s="22"/>
     </row>
     <row r="39" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B39" s="3">
         <v>37</v>
       </c>
-      <c r="C39" s="26" t="s">
+      <c r="C39" s="23" t="s">
         <v>275</v>
       </c>
-      <c r="D39" s="29">
+      <c r="D39" s="26">
         <v>27</v>
       </c>
-      <c r="E39" s="29">
+      <c r="E39" s="26">
         <v>29</v>
       </c>
-      <c r="F39" s="29">
+      <c r="F39" s="26">
         <v>39</v>
       </c>
-      <c r="G39" s="6" t="s">
+      <c r="G39" s="5" t="s">
         <v>247</v>
       </c>
-      <c r="H39" s="24" t="s">
+      <c r="H39" s="22" t="s">
         <v>305</v>
       </c>
     </row>
@@ -5549,91 +5586,91 @@
       <c r="B40" s="3">
         <v>38</v>
       </c>
-      <c r="C40" s="18" t="s">
+      <c r="C40" s="17" t="s">
         <v>276</v>
       </c>
-      <c r="D40" s="19">
+      <c r="D40" s="18">
         <v>41</v>
       </c>
-      <c r="E40" s="19"/>
-      <c r="F40" s="19"/>
-      <c r="G40" s="9" t="s">
+      <c r="E40" s="18"/>
+      <c r="F40" s="18"/>
+      <c r="G40" s="8" t="s">
         <v>277</v>
       </c>
-      <c r="H40" s="24"/>
+      <c r="H40" s="22"/>
     </row>
     <row r="41" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B41" s="3">
         <v>39</v>
       </c>
-      <c r="C41" s="26" t="s">
+      <c r="C41" s="23" t="s">
         <v>278</v>
       </c>
-      <c r="D41" s="29">
+      <c r="D41" s="26">
         <v>56</v>
       </c>
-      <c r="E41" s="29">
+      <c r="E41" s="26">
         <v>33</v>
       </c>
-      <c r="F41" s="29">
+      <c r="F41" s="26">
         <v>53</v>
       </c>
-      <c r="G41" s="6" t="s">
+      <c r="G41" s="5" t="s">
         <v>279</v>
       </c>
-      <c r="H41" s="24" t="s">
+      <c r="H41" s="22" t="s">
         <v>305</v>
       </c>
     </row>
     <row r="42" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C42" s="26" t="s">
+      <c r="C42" s="23" t="s">
         <v>312</v>
       </c>
-      <c r="D42" s="15">
+      <c r="D42" s="14">
         <v>33</v>
       </c>
-      <c r="E42" s="15">
+      <c r="E42" s="14">
         <v>13</v>
       </c>
-      <c r="F42" s="15">
+      <c r="F42" s="14">
         <v>30</v>
       </c>
-      <c r="G42" s="15" t="s">
+      <c r="G42" s="14" t="s">
         <v>313</v>
       </c>
-      <c r="H42" s="28" t="s">
+      <c r="H42" s="25" t="s">
         <v>314</v>
       </c>
     </row>
     <row r="43" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C43" s="26" t="s">
+      <c r="C43" s="23" t="s">
         <v>315</v>
       </c>
-      <c r="D43" s="15">
+      <c r="D43" s="14">
         <v>48</v>
       </c>
-      <c r="E43" s="15">
+      <c r="E43" s="14">
         <v>52</v>
       </c>
-      <c r="F43" s="15">
+      <c r="F43" s="14">
         <v>42</v>
       </c>
-      <c r="G43" s="15" t="s">
+      <c r="G43" s="14" t="s">
         <v>316</v>
       </c>
-      <c r="H43" s="24" t="s">
+      <c r="H43" s="22" t="s">
         <v>317</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="B2:G43" xr:uid="{A020747E-DB66-44FE-A957-9A6966086A84}">
+  <autoFilter ref="B2:G43">
     <filterColumn colId="1">
       <colorFilter dxfId="1"/>
     </filterColumn>
   </autoFilter>
   <hyperlinks>
-    <hyperlink ref="C42" r:id="rId1" xr:uid="{332C0244-819B-4FDD-8A6C-9DC179A65185}"/>
-    <hyperlink ref="C43" r:id="rId2" xr:uid="{D8ED73AC-4C5E-40E9-BD97-47E029947D3E}"/>
+    <hyperlink ref="C42" r:id="rId1"/>
+    <hyperlink ref="C43" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId3"/>
@@ -5641,10 +5678,10 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:D26"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A4" workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
@@ -5655,13 +5692,13 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="20" t="s">
+      <c r="B2" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="C2" s="19" t="s">
         <v>67</v>
       </c>
-      <c r="D2" s="20" t="s">
+      <c r="D2" s="19" t="s">
         <v>68</v>
       </c>
     </row>
@@ -5669,7 +5706,7 @@
       <c r="B3" s="3">
         <v>1</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="C3" s="13" t="s">
         <v>281</v>
       </c>
       <c r="D3" s="3">
@@ -5680,7 +5717,7 @@
       <c r="B4" s="3">
         <v>2</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="9" t="s">
         <v>282</v>
       </c>
       <c r="D4" s="3">
@@ -5691,7 +5728,7 @@
       <c r="B5" s="3">
         <v>3</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="C5" s="9" t="s">
         <v>283</v>
       </c>
       <c r="D5" s="3">
@@ -5702,7 +5739,7 @@
       <c r="B6" s="3">
         <v>4</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="C6" s="9" t="s">
         <v>284</v>
       </c>
       <c r="D6" s="3">
@@ -5713,7 +5750,7 @@
       <c r="B7" s="3">
         <v>5</v>
       </c>
-      <c r="C7" s="10" t="s">
+      <c r="C7" s="9" t="s">
         <v>285</v>
       </c>
       <c r="D7" s="3">
@@ -5724,7 +5761,7 @@
       <c r="B8" s="3">
         <v>6</v>
       </c>
-      <c r="C8" s="10" t="s">
+      <c r="C8" s="9" t="s">
         <v>286</v>
       </c>
       <c r="D8" s="3">
@@ -5735,7 +5772,7 @@
       <c r="B9" s="3">
         <v>7</v>
       </c>
-      <c r="C9" s="10" t="s">
+      <c r="C9" s="9" t="s">
         <v>219</v>
       </c>
       <c r="D9" s="3">
@@ -5746,7 +5783,7 @@
       <c r="B10" s="3">
         <v>8</v>
       </c>
-      <c r="C10" s="10" t="s">
+      <c r="C10" s="9" t="s">
         <v>287</v>
       </c>
       <c r="D10" s="3">
@@ -5757,7 +5794,7 @@
       <c r="B11" s="3">
         <v>9</v>
       </c>
-      <c r="C11" s="10" t="s">
+      <c r="C11" s="9" t="s">
         <v>288</v>
       </c>
       <c r="D11" s="3">
@@ -5768,7 +5805,7 @@
       <c r="B12" s="3">
         <v>10</v>
       </c>
-      <c r="C12" s="10" t="s">
+      <c r="C12" s="9" t="s">
         <v>289</v>
       </c>
       <c r="D12" s="3">
@@ -5779,7 +5816,7 @@
       <c r="B13" s="3">
         <v>11</v>
       </c>
-      <c r="C13" s="10" t="s">
+      <c r="C13" s="9" t="s">
         <v>290</v>
       </c>
       <c r="D13" s="3">
@@ -5790,7 +5827,7 @@
       <c r="B14" s="3">
         <v>12</v>
       </c>
-      <c r="C14" s="10" t="s">
+      <c r="C14" s="9" t="s">
         <v>291</v>
       </c>
       <c r="D14" s="3">
@@ -5801,7 +5838,7 @@
       <c r="B15" s="3">
         <v>13</v>
       </c>
-      <c r="C15" s="10" t="s">
+      <c r="C15" s="9" t="s">
         <v>292</v>
       </c>
       <c r="D15" s="3">
@@ -5812,7 +5849,7 @@
       <c r="B16" s="3">
         <v>14</v>
       </c>
-      <c r="C16" s="10" t="s">
+      <c r="C16" s="9" t="s">
         <v>198</v>
       </c>
       <c r="D16" s="3">
@@ -5823,7 +5860,7 @@
       <c r="B17" s="3">
         <v>15</v>
       </c>
-      <c r="C17" s="10" t="s">
+      <c r="C17" s="9" t="s">
         <v>293</v>
       </c>
       <c r="D17" s="3">
@@ -5834,7 +5871,7 @@
       <c r="B18" s="3">
         <v>16</v>
       </c>
-      <c r="C18" s="10" t="s">
+      <c r="C18" s="9" t="s">
         <v>294</v>
       </c>
       <c r="D18" s="3">
@@ -5845,7 +5882,7 @@
       <c r="B19" s="3">
         <v>17</v>
       </c>
-      <c r="C19" s="10" t="s">
+      <c r="C19" s="9" t="s">
         <v>208</v>
       </c>
       <c r="D19" s="3">
@@ -5856,7 +5893,7 @@
       <c r="B20" s="3">
         <v>18</v>
       </c>
-      <c r="C20" s="10" t="s">
+      <c r="C20" s="9" t="s">
         <v>295</v>
       </c>
       <c r="D20" s="3">
@@ -5867,7 +5904,7 @@
       <c r="B21" s="3">
         <v>19</v>
       </c>
-      <c r="C21" s="10" t="s">
+      <c r="C21" s="9" t="s">
         <v>296</v>
       </c>
       <c r="D21" s="3">
@@ -5878,7 +5915,7 @@
       <c r="B22" s="3">
         <v>20</v>
       </c>
-      <c r="C22" s="10" t="s">
+      <c r="C22" s="9" t="s">
         <v>297</v>
       </c>
       <c r="D22" s="3">
@@ -5889,7 +5926,7 @@
       <c r="B23" s="3">
         <v>21</v>
       </c>
-      <c r="C23" s="10" t="s">
+      <c r="C23" s="9" t="s">
         <v>298</v>
       </c>
       <c r="D23" s="3">
@@ -5900,7 +5937,7 @@
       <c r="B24" s="3">
         <v>22</v>
       </c>
-      <c r="C24" s="10" t="s">
+      <c r="C24" s="9" t="s">
         <v>299</v>
       </c>
       <c r="D24" s="3">
@@ -5911,7 +5948,7 @@
       <c r="B25" s="3">
         <v>23</v>
       </c>
-      <c r="C25" s="10" t="s">
+      <c r="C25" s="9" t="s">
         <v>300</v>
       </c>
       <c r="D25" s="3">
@@ -5922,7 +5959,7 @@
       <c r="B26" s="3">
         <v>24</v>
       </c>
-      <c r="C26" s="10" t="s">
+      <c r="C26" s="9" t="s">
         <v>301</v>
       </c>
       <c r="D26" s="3">
@@ -5935,10 +5972,10 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C3:F41"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A22" workbookViewId="0">
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
@@ -5949,16 +5986,16 @@
   </cols>
   <sheetData>
     <row r="3" spans="3:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C3" s="21" t="s">
+      <c r="C3" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="D3" s="21" t="s">
+      <c r="D3" s="20" t="s">
         <v>67</v>
       </c>
-      <c r="E3" s="21" t="s">
+      <c r="E3" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="F3" s="21" t="s">
+      <c r="F3" s="20" t="s">
         <v>69</v>
       </c>
     </row>
@@ -5966,7 +6003,7 @@
       <c r="C4" s="3">
         <v>1</v>
       </c>
-      <c r="D4" s="22" t="s">
+      <c r="D4" s="21" t="s">
         <v>33</v>
       </c>
       <c r="E4" s="3">
@@ -5980,7 +6017,7 @@
       <c r="C5" s="3">
         <v>2</v>
       </c>
-      <c r="D5" s="22" t="s">
+      <c r="D5" s="21" t="s">
         <v>32</v>
       </c>
       <c r="E5" s="3">
@@ -5994,7 +6031,7 @@
       <c r="C6" s="3">
         <v>3</v>
       </c>
-      <c r="D6" s="22" t="s">
+      <c r="D6" s="21" t="s">
         <v>3</v>
       </c>
       <c r="E6" s="3">
@@ -6008,7 +6045,7 @@
       <c r="C7" s="3">
         <v>4</v>
       </c>
-      <c r="D7" s="22" t="s">
+      <c r="D7" s="21" t="s">
         <v>34</v>
       </c>
       <c r="E7" s="3">
@@ -6022,7 +6059,7 @@
       <c r="C8" s="3">
         <v>5</v>
       </c>
-      <c r="D8" s="22" t="s">
+      <c r="D8" s="21" t="s">
         <v>35</v>
       </c>
       <c r="E8" s="3">
@@ -6036,7 +6073,7 @@
       <c r="C9" s="3">
         <v>6</v>
       </c>
-      <c r="D9" s="22" t="s">
+      <c r="D9" s="21" t="s">
         <v>36</v>
       </c>
       <c r="E9" s="3">
@@ -6050,7 +6087,7 @@
       <c r="C10" s="3">
         <v>7</v>
       </c>
-      <c r="D10" s="22" t="s">
+      <c r="D10" s="21" t="s">
         <v>37</v>
       </c>
       <c r="E10" s="3">
@@ -6064,7 +6101,7 @@
       <c r="C11" s="3">
         <v>8</v>
       </c>
-      <c r="D11" s="22" t="s">
+      <c r="D11" s="21" t="s">
         <v>38</v>
       </c>
       <c r="E11" s="3">
@@ -6078,7 +6115,7 @@
       <c r="C12" s="3">
         <v>9</v>
       </c>
-      <c r="D12" s="22" t="s">
+      <c r="D12" s="21" t="s">
         <v>39</v>
       </c>
       <c r="E12" s="3">
@@ -6092,7 +6129,7 @@
       <c r="C13" s="3">
         <v>10</v>
       </c>
-      <c r="D13" s="22" t="s">
+      <c r="D13" s="21" t="s">
         <v>40</v>
       </c>
       <c r="E13" s="3">
@@ -6106,7 +6143,7 @@
       <c r="C14" s="3">
         <v>11</v>
       </c>
-      <c r="D14" s="22" t="s">
+      <c r="D14" s="21" t="s">
         <v>41</v>
       </c>
       <c r="E14" s="3">
@@ -6120,7 +6157,7 @@
       <c r="C15" s="3">
         <v>12</v>
       </c>
-      <c r="D15" s="22" t="s">
+      <c r="D15" s="21" t="s">
         <v>42</v>
       </c>
       <c r="E15" s="3">
@@ -6134,7 +6171,7 @@
       <c r="C16" s="3">
         <v>13</v>
       </c>
-      <c r="D16" s="22" t="s">
+      <c r="D16" s="21" t="s">
         <v>28</v>
       </c>
       <c r="E16" s="3">
@@ -6148,7 +6185,7 @@
       <c r="C17" s="3">
         <v>14</v>
       </c>
-      <c r="D17" s="22" t="s">
+      <c r="D17" s="21" t="s">
         <v>43</v>
       </c>
       <c r="E17" s="3">
@@ -6162,7 +6199,7 @@
       <c r="C18" s="3">
         <v>15</v>
       </c>
-      <c r="D18" s="22" t="s">
+      <c r="D18" s="21" t="s">
         <v>44</v>
       </c>
       <c r="E18" s="3">
@@ -6176,7 +6213,7 @@
       <c r="C19" s="3">
         <v>16</v>
       </c>
-      <c r="D19" s="22" t="s">
+      <c r="D19" s="21" t="s">
         <v>45</v>
       </c>
       <c r="E19" s="3">
@@ -6190,7 +6227,7 @@
       <c r="C20" s="3">
         <v>17</v>
       </c>
-      <c r="D20" s="22" t="s">
+      <c r="D20" s="21" t="s">
         <v>46</v>
       </c>
       <c r="E20" s="3">
@@ -6204,7 +6241,7 @@
       <c r="C21" s="3">
         <v>18</v>
       </c>
-      <c r="D21" s="22" t="s">
+      <c r="D21" s="21" t="s">
         <v>47</v>
       </c>
       <c r="E21" s="3">
@@ -6218,7 +6255,7 @@
       <c r="C22" s="3">
         <v>19</v>
       </c>
-      <c r="D22" s="22" t="s">
+      <c r="D22" s="21" t="s">
         <v>48</v>
       </c>
       <c r="E22" s="3">
@@ -6232,7 +6269,7 @@
       <c r="C23" s="3">
         <v>20</v>
       </c>
-      <c r="D23" s="22" t="s">
+      <c r="D23" s="21" t="s">
         <v>49</v>
       </c>
       <c r="E23" s="3">
@@ -6246,7 +6283,7 @@
       <c r="C24" s="3">
         <v>21</v>
       </c>
-      <c r="D24" s="22" t="s">
+      <c r="D24" s="21" t="s">
         <v>50</v>
       </c>
       <c r="E24" s="3">
@@ -6260,7 +6297,7 @@
       <c r="C25" s="3">
         <v>22</v>
       </c>
-      <c r="D25" s="5" t="s">
+      <c r="D25" s="4" t="s">
         <v>57</v>
       </c>
       <c r="E25" s="3">
@@ -6274,7 +6311,7 @@
       <c r="C26" s="3">
         <v>23</v>
       </c>
-      <c r="D26" s="22" t="s">
+      <c r="D26" s="21" t="s">
         <v>51</v>
       </c>
       <c r="E26" s="3">
@@ -6288,7 +6325,7 @@
       <c r="C27" s="3">
         <v>24</v>
       </c>
-      <c r="D27" s="22" t="s">
+      <c r="D27" s="21" t="s">
         <v>52</v>
       </c>
       <c r="E27" s="3">
@@ -6302,7 +6339,7 @@
       <c r="C28" s="3">
         <v>25</v>
       </c>
-      <c r="D28" s="22" t="s">
+      <c r="D28" s="21" t="s">
         <v>53</v>
       </c>
       <c r="E28" s="3">
@@ -6316,7 +6353,7 @@
       <c r="C29" s="3">
         <v>26</v>
       </c>
-      <c r="D29" s="5" t="s">
+      <c r="D29" s="4" t="s">
         <v>54</v>
       </c>
       <c r="E29" s="3">
@@ -6330,7 +6367,7 @@
       <c r="C30" s="3">
         <v>27</v>
       </c>
-      <c r="D30" s="5" t="s">
+      <c r="D30" s="4" t="s">
         <v>55</v>
       </c>
       <c r="E30" s="3">
@@ -6344,7 +6381,7 @@
       <c r="C31" s="3">
         <v>28</v>
       </c>
-      <c r="D31" s="5" t="s">
+      <c r="D31" s="4" t="s">
         <v>56</v>
       </c>
       <c r="E31" s="3">
@@ -6358,7 +6395,7 @@
       <c r="C32" s="3">
         <v>29</v>
       </c>
-      <c r="D32" s="5" t="s">
+      <c r="D32" s="4" t="s">
         <v>58</v>
       </c>
       <c r="E32" s="3">
@@ -6372,7 +6409,7 @@
       <c r="C33" s="3">
         <v>30</v>
       </c>
-      <c r="D33" s="5" t="s">
+      <c r="D33" s="4" t="s">
         <v>59</v>
       </c>
       <c r="E33" s="3">
@@ -6386,7 +6423,7 @@
       <c r="C34" s="3">
         <v>31</v>
       </c>
-      <c r="D34" s="5" t="s">
+      <c r="D34" s="4" t="s">
         <v>60</v>
       </c>
       <c r="E34" s="3">
@@ -6400,7 +6437,7 @@
       <c r="C35" s="3">
         <v>32</v>
       </c>
-      <c r="D35" s="5" t="s">
+      <c r="D35" s="4" t="s">
         <v>61</v>
       </c>
       <c r="E35" s="3">
@@ -6414,7 +6451,7 @@
       <c r="C36" s="3">
         <v>33</v>
       </c>
-      <c r="D36" s="5" t="s">
+      <c r="D36" s="4" t="s">
         <v>302</v>
       </c>
       <c r="E36" s="3">
@@ -6428,7 +6465,7 @@
       <c r="C37" s="3">
         <v>34</v>
       </c>
-      <c r="D37" s="5" t="s">
+      <c r="D37" s="4" t="s">
         <v>303</v>
       </c>
       <c r="E37" s="3">
@@ -6442,7 +6479,7 @@
       <c r="C38" s="3">
         <v>35</v>
       </c>
-      <c r="D38" s="5" t="s">
+      <c r="D38" s="4" t="s">
         <v>62</v>
       </c>
       <c r="E38" s="3">
@@ -6456,7 +6493,7 @@
       <c r="C39" s="3">
         <v>36</v>
       </c>
-      <c r="D39" s="5" t="s">
+      <c r="D39" s="4" t="s">
         <v>63</v>
       </c>
       <c r="E39" s="3">
@@ -6470,7 +6507,7 @@
       <c r="C40" s="3">
         <v>37</v>
       </c>
-      <c r="D40" s="5" t="s">
+      <c r="D40" s="4" t="s">
         <v>64</v>
       </c>
       <c r="E40" s="3">
@@ -6484,7 +6521,7 @@
       <c r="C41" s="3">
         <v>38</v>
       </c>
-      <c r="D41" s="5" t="s">
+      <c r="D41" s="4" t="s">
         <v>65</v>
       </c>
       <c r="E41" s="3">
